--- a/1USEPA_PSDM/3PSDM_EditMathieu/Example_TCE_F400_example2.xlsx
+++ b/1USEPA_PSDM/3PSDM_EditMathieu/Example_TCE_F400_example2.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="model-Trichloroethylene" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="model-PFHpA" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B697"/>
+  <dimension ref="A1:B497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
         <v>0.25</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>5.37778147450796e-07</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>0.5</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>5.950530722937844e-07</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>0.75</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>6.681688647817513e-07</v>
       </c>
     </row>
     <row r="6">
@@ -477,7 +477,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>7.526453914975326e-07</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +485,7 @@
         <v>1.25</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>8.461349282273296e-07</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,7 @@
         <v>1.5</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>9.473559236502408e-07</v>
       </c>
     </row>
     <row r="9">
@@ -501,7 +501,7 @@
         <v>1.75</v>
       </c>
       <c r="B9" t="n">
-        <v>0.002871600661371021</v>
+        <v>1.055651023787747e-06</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1212979294568549</v>
+        <v>1.170766627008439e-06</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>2.25</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2300293492096393</v>
+        <v>1.292726143130706e-06</v>
       </c>
     </row>
     <row r="12">
@@ -525,7 +525,7 @@
         <v>2.5</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3287660266269313</v>
+        <v>1.421750477385458e-06</v>
       </c>
     </row>
     <row r="13">
@@ -533,7 +533,7 @@
         <v>2.75</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4178319542380458</v>
+        <v>1.558205342985783e-06</v>
       </c>
     </row>
     <row r="14">
@@ -541,7 +541,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4975612821133483</v>
+        <v>1.702565474965381e-06</v>
       </c>
     </row>
     <row r="15">
@@ -549,7 +549,7 @@
         <v>3.25</v>
       </c>
       <c r="B15" t="n">
-        <v>0.568288379161126</v>
+        <v>1.855390252418951e-06</v>
       </c>
     </row>
     <row r="16">
@@ -557,7 +557,7 @@
         <v>3.5</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6303613611742528</v>
+        <v>2.017307331352375e-06</v>
       </c>
     </row>
     <row r="17">
@@ -565,7 +565,7 @@
         <v>3.75</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6841249085440189</v>
+        <v>2.189002008253183e-06</v>
       </c>
     </row>
     <row r="18">
@@ -573,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7299198005752927</v>
+        <v>2.371210713103172e-06</v>
       </c>
     </row>
     <row r="19">
@@ -581,7 +581,7 @@
         <v>4.25</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7680837374812465</v>
+        <v>2.564717483662081e-06</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>4.5</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7989515860750508</v>
+        <v>2.770352591906703e-06</v>
       </c>
     </row>
     <row r="21">
@@ -597,7 +597,7 @@
         <v>4.75</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8228553627563772</v>
+        <v>2.988992723520175e-06</v>
       </c>
     </row>
     <row r="22">
@@ -605,7 +605,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8401239859641501</v>
+        <v>3.22156227884519e-06</v>
       </c>
     </row>
     <row r="23">
@@ -613,7 +613,7 @@
         <v>5.25</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8510828358330013</v>
+        <v>3.469035486427397e-06</v>
       </c>
     </row>
     <row r="24">
@@ -621,7 +621,7 @@
         <v>5.5</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8560531997822984</v>
+        <v>3.732439110591043e-06</v>
       </c>
     </row>
     <row r="25">
@@ -629,7 +629,7 @@
         <v>5.75</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8553516379280409</v>
+        <v>4.012855601185163e-06</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>6</v>
       </c>
       <c r="B26" t="n">
-        <v>0.849289277847775</v>
+        <v>4.311426582930125e-06</v>
       </c>
     </row>
     <row r="27">
@@ -645,7 +645,7 @@
         <v>6.25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8381711832500991</v>
+        <v>4.629356618078506e-06</v>
       </c>
     </row>
     <row r="28">
@@ -653,7 +653,7 @@
         <v>6.5</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8222957543220747</v>
+        <v>4.967917202561466e-06</v>
       </c>
     </row>
     <row r="29">
@@ -661,7 +661,7 @@
         <v>6.75</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8019541701509941</v>
+        <v>5.328450974814869e-06</v>
       </c>
     </row>
     <row r="30">
@@ -669,7 +669,7 @@
         <v>7</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7774299426560041</v>
+        <v>5.712376129859452e-06</v>
       </c>
     </row>
     <row r="31">
@@ -677,7 +677,7 @@
         <v>7.25</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7489985198703629</v>
+        <v>6.121191040367127e-06</v>
       </c>
     </row>
     <row r="32">
@@ -685,7 +685,7 @@
         <v>7.5</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7169269456613248</v>
+        <v>6.556479092483717e-06</v>
       </c>
     </row>
     <row r="33">
@@ -693,7 +693,7 @@
         <v>7.75</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6814737224714212</v>
+        <v>7.019913747975484e-06</v>
       </c>
     </row>
     <row r="34">
@@ -701,7 +701,7 @@
         <v>8</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6428886419502841</v>
+        <v>7.513263846474219e-06</v>
       </c>
     </row>
     <row r="35">
@@ -709,7 +709,7 @@
         <v>8.25</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6014126390643968</v>
+        <v>8.038399162732539e-06</v>
       </c>
     </row>
     <row r="36">
@@ -717,7 +717,7 @@
         <v>8.5</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5572777585138278</v>
+        <v>8.597296234243704e-06</v>
       </c>
     </row>
     <row r="37">
@@ -725,7 +725,7 @@
         <v>8.75</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5107072206578118</v>
+        <v>9.19204447456432e-06</v>
       </c>
     </row>
     <row r="38">
@@ -733,7 +733,7 @@
         <v>9</v>
       </c>
       <c r="B38" t="n">
-        <v>0.461915427880685</v>
+        <v>9.824852587436819e-06</v>
       </c>
     </row>
     <row r="39">
@@ -741,7 +741,7 @@
         <v>9.25</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4111080702669831</v>
+        <v>1.049805529639374e-05</v>
       </c>
     </row>
     <row r="40">
@@ -749,7 +749,7 @@
         <v>9.5</v>
       </c>
       <c r="B40" t="n">
-        <v>0.3584821974507361</v>
+        <v>1.121412040406021e-05</v>
       </c>
     </row>
     <row r="41">
@@ -757,7 +757,7 @@
         <v>9.75</v>
       </c>
       <c r="B41" t="n">
-        <v>0.304226345003678</v>
+        <v>1.197565619488011e-05</v>
       </c>
     </row>
     <row r="42">
@@ -765,7 +765,7 @@
         <v>10</v>
       </c>
       <c r="B42" t="n">
-        <v>0.248520715539133</v>
+        <v>1.278541919446207e-05</v>
       </c>
     </row>
     <row r="43">
@@ -773,7 +773,7 @@
         <v>10.25</v>
       </c>
       <c r="B43" t="n">
-        <v>0.191537313525809</v>
+        <v>1.364632229823475e-05</v>
       </c>
     </row>
     <row r="44">
@@ -781,7 +781,7 @@
         <v>10.5</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1334401181863139</v>
+        <v>1.456144328156469e-05</v>
       </c>
     </row>
     <row r="45">
@@ -789,7 +789,7 @@
         <v>10.75</v>
       </c>
       <c r="B45" t="n">
-        <v>0.07439223524869711</v>
+        <v>1.55340337029505e-05</v>
       </c>
     </row>
     <row r="46">
@@ -797,7 +797,7 @@
         <v>11</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01490405500870497</v>
+        <v>1.656752821134511e-05</v>
       </c>
     </row>
     <row r="47">
@@ -805,7 +805,7 @@
         <v>11.25</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1.766555426807656e-05</v>
       </c>
     </row>
     <row r="48">
@@ -813,7 +813,7 @@
         <v>11.5</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1.883194229323373e-05</v>
       </c>
     </row>
     <row r="49">
@@ -821,7 +821,7 @@
         <v>11.75</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>2.007073624574438e-05</v>
       </c>
     </row>
     <row r="50">
@@ -829,7 +829,7 @@
         <v>12</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>2.138620464570294e-05</v>
       </c>
     </row>
     <row r="51">
@@ -837,7 +837,7 @@
         <v>12.25</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>2.278285204679765e-05</v>
       </c>
     </row>
     <row r="52">
@@ -845,7 +845,7 @@
         <v>12.5</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>2.426543096593381e-05</v>
       </c>
     </row>
     <row r="53">
@@ -853,7 +853,7 @@
         <v>12.75</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>2.583895427632943e-05</v>
       </c>
     </row>
     <row r="54">
@@ -861,7 +861,7 @@
         <v>13</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>2.750865030148858e-05</v>
       </c>
     </row>
     <row r="55">
@@ -869,7 +869,7 @@
         <v>13.25</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>2.927905204902275e-05</v>
       </c>
     </row>
     <row r="56">
@@ -877,7 +877,7 @@
         <v>13.5</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>3.115604023713696e-05</v>
       </c>
     </row>
     <row r="57">
@@ -885,7 +885,7 @@
         <v>13.75</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>3.31456832527518e-05</v>
       </c>
     </row>
     <row r="58">
@@ -893,7 +893,7 @@
         <v>14</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>3.525427409182894e-05</v>
       </c>
     </row>
     <row r="59">
@@ -901,7 +901,7 @@
         <v>14.25</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>3.748845244298737e-05</v>
       </c>
     </row>
     <row r="60">
@@ -909,7 +909,7 @@
         <v>14.5</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>3.985520563105218e-05</v>
       </c>
     </row>
     <row r="61">
@@ -917,7 +917,7 @@
         <v>14.75</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>4.236188366798211e-05</v>
       </c>
     </row>
     <row r="62">
@@ -925,7 +925,7 @@
         <v>15</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>4.501621345817454e-05</v>
       </c>
     </row>
     <row r="63">
@@ -933,7 +933,7 @@
         <v>15.25</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>4.7826313647724e-05</v>
       </c>
     </row>
     <row r="64">
@@ -941,7 +941,7 @@
         <v>15.5</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>5.080070989062019e-05</v>
       </c>
     </row>
     <row r="65">
@@ -949,7 +949,7 @@
         <v>15.75</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>5.394835051938958e-05</v>
       </c>
     </row>
     <row r="66">
@@ -957,7 +957,7 @@
         <v>16</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>5.727862258432351e-05</v>
       </c>
     </row>
     <row r="67">
@@ -965,7 +965,7 @@
         <v>16.25</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>6.080136822673083e-05</v>
       </c>
     </row>
     <row r="68">
@@ -973,7 +973,7 @@
         <v>16.5</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>6.452690134794479e-05</v>
       </c>
     </row>
     <row r="69">
@@ -981,7 +981,7 @@
         <v>16.75</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>6.846602453138259e-05</v>
       </c>
     </row>
     <row r="70">
@@ -989,7 +989,7 @@
         <v>17</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>7.263004616981206e-05</v>
       </c>
     </row>
     <row r="71">
@@ -997,7 +997,7 @@
         <v>17.25</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>7.703079774436685e-05</v>
       </c>
     </row>
     <row r="72">
@@ -1005,7 +1005,7 @@
         <v>17.5</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>8.168065119592329e-05</v>
       </c>
     </row>
     <row r="73">
@@ -1013,7 +1013,7 @@
         <v>17.75</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>8.659253632330875e-05</v>
       </c>
     </row>
     <row r="74">
@@ -1021,7 +1021,7 @@
         <v>18</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>9.177995813646468e-05</v>
       </c>
     </row>
     <row r="75">
@@ -1029,7 +1029,7 @@
         <v>18.25</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>9.7257014086217e-05</v>
       </c>
     </row>
     <row r="76">
@@ -1037,7 +1037,7 @@
         <v>18.5</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>0.0001030384110857396</v>
       </c>
     </row>
     <row r="77">
@@ -1045,7 +1045,7 @@
         <v>18.75</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>0.00010913948223213</v>
       </c>
     </row>
     <row r="78">
@@ -1053,7 +1053,7 @@
         <v>19</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>0.0001155762031298596</v>
       </c>
     </row>
     <row r="79">
@@ -1061,7 +1061,7 @@
         <v>19.25</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>0.0001223652077112039</v>
       </c>
     </row>
     <row r="80">
@@ -1069,7 +1069,7 @@
         <v>19.5</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>0.0001295238034421377</v>
       </c>
     </row>
     <row r="81">
@@ -1077,7 +1077,7 @@
         <v>19.75</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>0.000137069985795731</v>
       </c>
     </row>
     <row r="82">
@@ -1085,7 +1085,7 @@
         <v>20</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>0.0001450224518687582</v>
       </c>
     </row>
     <row r="83">
@@ -1093,7 +1093,7 @@
         <v>20.25</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>0.0001534006130111608</v>
       </c>
     </row>
     <row r="84">
@@ -1101,7 +1101,7 @@
         <v>20.5</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>0.0001622246063322501</v>
       </c>
     </row>
     <row r="85">
@@ -1109,7 +1109,7 @@
         <v>20.75</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>0.0001715153049421342</v>
       </c>
     </row>
     <row r="86">
@@ -1117,7 +1117,7 @@
         <v>21</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>0.0001812943267819103</v>
       </c>
     </row>
     <row r="87">
@@ -1125,7 +1125,7 @@
         <v>21.25</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>0.0001915840418917623</v>
       </c>
     </row>
     <row r="88">
@@ -1133,7 +1133,7 @@
         <v>21.5</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>0.0002024075779623098</v>
       </c>
     </row>
     <row r="89">
@@ -1141,7 +1141,7 @@
         <v>21.75</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>0.0002137888240114852</v>
       </c>
     </row>
     <row r="90">
@@ -1149,7 +1149,7 @@
         <v>22</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>0.0002257524320269632</v>
       </c>
     </row>
     <row r="91">
@@ -1157,7 +1157,7 @@
         <v>22.25</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>0.0002383238164128386</v>
       </c>
     </row>
     <row r="92">
@@ -1165,7 +1165,7 @@
         <v>22.5</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>0.0002515291510789427</v>
       </c>
     </row>
     <row r="93">
@@ -1173,7 +1173,7 @@
         <v>22.75</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>0.0002653953640120772</v>
       </c>
     </row>
     <row r="94">
@@ -1181,7 +1181,7 @@
         <v>23</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>0.0002799501291705422</v>
       </c>
     </row>
     <row r="95">
@@ -1189,7 +1189,7 @@
         <v>23.25</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>0.0002952218555468973</v>
       </c>
     </row>
     <row r="96">
@@ -1197,7 +1197,7 @@
         <v>23.5</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>0.0003112396732489184</v>
       </c>
     </row>
     <row r="97">
@@ -1205,7 +1205,7 @@
         <v>23.75</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>0.0003280334164553802</v>
       </c>
     </row>
     <row r="98">
@@ -1213,7 +1213,7 @@
         <v>24</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>0.0003456336031117086</v>
       </c>
     </row>
     <row r="99">
@@ -1221,7 +1221,7 @@
         <v>24.25</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>0.0003640714112407542</v>
       </c>
     </row>
     <row r="100">
@@ -1229,7 +1229,7 @@
         <v>24.5</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>0.0003833786517560775</v>
       </c>
     </row>
     <row r="101">
@@ -1237,7 +1237,7 @@
         <v>24.75</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>0.0004035877376792067</v>
       </c>
     </row>
     <row r="102">
@@ -1245,7 +1245,7 @@
         <v>25</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>0.0004247316496784187</v>
       </c>
     </row>
     <row r="103">
@@ -1253,7 +1253,7 @@
         <v>25.25</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>0.0004468438978646331</v>
       </c>
     </row>
     <row r="104">
@@ -1261,7 +1261,7 @@
         <v>25.5</v>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>0.000469958479800062</v>
       </c>
     </row>
     <row r="105">
@@ -1269,7 +1269,7 @@
         <v>25.75</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>0.0004941098346971647</v>
       </c>
     </row>
     <row r="106">
@@ -1277,7 +1277,7 @@
         <v>26</v>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>0.0005193327938092099</v>
       </c>
     </row>
     <row r="107">
@@ -1285,7 +1285,7 @@
         <v>26.25</v>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>0.0005456625270391136</v>
       </c>
     </row>
     <row r="108">
@@ -1293,7 +1293,7 @@
         <v>26.5</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>0.000573134485820121</v>
       </c>
     </row>
     <row r="109">
@@ -1301,7 +1301,7 @@
         <v>26.75</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>0.000601784342350039</v>
       </c>
     </row>
     <row r="110">
@@ -1309,7 +1309,7 @@
         <v>27</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>0.000631647925289874</v>
       </c>
     </row>
     <row r="111">
@@ -1317,7 +1317,7 @@
         <v>27.25</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>0.0006627611520676456</v>
       </c>
     </row>
     <row r="112">
@@ -1325,7 +1325,7 @@
         <v>27.5</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>0.0006951599579584066</v>
       </c>
     </row>
     <row r="113">
@@ -1333,7 +1333,7 @@
         <v>27.75</v>
       </c>
       <c r="B113" t="n">
-        <v>0.001068382726268396</v>
+        <v>0.0007288802221418702</v>
       </c>
     </row>
     <row r="114">
@@ -1341,7 +1341,7 @@
         <v>28</v>
       </c>
       <c r="B114" t="n">
-        <v>0.056096707779982</v>
+        <v>0.0007639576909690625</v>
       </c>
     </row>
     <row r="115">
@@ -1349,7 +1349,7 @@
         <v>28.25</v>
       </c>
       <c r="B115" t="n">
-        <v>0.1158789560991215</v>
+        <v>0.0008004278986987716</v>
       </c>
     </row>
     <row r="116">
@@ -1357,7 +1357,7 @@
         <v>28.5</v>
       </c>
       <c r="B116" t="n">
-        <v>0.1758887702324086</v>
+        <v>0.0008383260859927804</v>
       </c>
     </row>
     <row r="117">
@@ -1365,7 +1365,7 @@
         <v>28.75</v>
       </c>
       <c r="B117" t="n">
-        <v>0.2360659195567785</v>
+        <v>0.0008776871164856186</v>
       </c>
     </row>
     <row r="118">
@@ -1373,7 +1373,7 @@
         <v>29</v>
       </c>
       <c r="B118" t="n">
-        <v>0.2963213684781045</v>
+        <v>0.000918545391769417</v>
       </c>
     </row>
     <row r="119">
@@ -1381,7 +1381,7 @@
         <v>29.25</v>
       </c>
       <c r="B119" t="n">
-        <v>0.3565193525491104</v>
+        <v>0.0009609347651570236</v>
       </c>
     </row>
     <row r="120">
@@ -1389,7 +1389,7 @@
         <v>29.5</v>
       </c>
       <c r="B120" t="n">
-        <v>0.4165571904994452</v>
+        <v>0.001004888454606484</v>
       </c>
     </row>
     <row r="121">
@@ -1397,7 +1397,7 @@
         <v>29.75</v>
       </c>
       <c r="B121" t="n">
-        <v>0.4763407594474065</v>
+        <v>0.001050438956721287</v>
       </c>
     </row>
     <row r="122">
@@ -1405,7 +1405,7 @@
         <v>30</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5357792192638752</v>
+        <v>0.001097617955698459</v>
       </c>
     </row>
     <row r="123">
@@ -1413,7 +1413,7 @@
         <v>30.25</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5947837065214976</v>
+        <v>0.001146456237481535</v>
       </c>
     </row>
     <row r="124">
@@ -1421,7 +1421,7 @@
         <v>30.5</v>
       </c>
       <c r="B124" t="n">
-        <v>0.6532668486860087</v>
+        <v>0.001196983605453332</v>
       </c>
     </row>
     <row r="125">
@@ -1429,7 +1429,7 @@
         <v>30.75</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7111424812878949</v>
+        <v>0.001249228793988377</v>
       </c>
     </row>
     <row r="126">
@@ -1437,7 +1437,7 @@
         <v>31</v>
       </c>
       <c r="B126" t="n">
-        <v>0.7683254228419599</v>
+        <v>0.001303219385191917</v>
       </c>
     </row>
     <row r="127">
@@ -1445,7 +1445,7 @@
         <v>31.25</v>
       </c>
       <c r="B127" t="n">
-        <v>0.8247313865087083</v>
+        <v>0.001358981727704301</v>
       </c>
     </row>
     <row r="128">
@@ -1453,7 +1453,7 @@
         <v>31.5</v>
       </c>
       <c r="B128" t="n">
-        <v>0.8802769572138984</v>
+        <v>0.001416540858013466</v>
       </c>
     </row>
     <row r="129">
@@ -1461,7 +1461,7 @@
         <v>31.75</v>
       </c>
       <c r="B129" t="n">
-        <v>0.9348795089966195</v>
+        <v>0.001475920424639473</v>
       </c>
     </row>
     <row r="130">
@@ -1469,7 +1469,7 @@
         <v>32</v>
       </c>
       <c r="B130" t="n">
-        <v>0.9884570551762604</v>
+        <v>0.001537142615739473</v>
       </c>
     </row>
     <row r="131">
@@ -1477,7 +1477,7 @@
         <v>32.25</v>
       </c>
       <c r="B131" t="n">
-        <v>1.040927881749115</v>
+        <v>0.001600228090413987</v>
       </c>
     </row>
     <row r="132">
@@ -1485,7 +1485,7 @@
         <v>32.5</v>
       </c>
       <c r="B132" t="n">
-        <v>1.092209388246497</v>
+        <v>0.001665195914000279</v>
       </c>
     </row>
     <row r="133">
@@ -1493,7 +1493,7 @@
         <v>32.75</v>
       </c>
       <c r="B133" t="n">
-        <v>1.142211556693139</v>
+        <v>0.001732063497741819</v>
       </c>
     </row>
     <row r="134">
@@ -1501,7 +1501,7 @@
         <v>33</v>
       </c>
       <c r="B134" t="n">
-        <v>1.190851091225156</v>
+        <v>0.001800846543096965</v>
       </c>
     </row>
     <row r="135">
@@ -1509,7 +1509,7 @@
         <v>33.25</v>
       </c>
       <c r="B135" t="n">
-        <v>1.238054530558346</v>
+        <v>0.001871558990943389</v>
       </c>
     </row>
     <row r="136">
@@ -1517,7 +1517,7 @@
         <v>33.5</v>
       </c>
       <c r="B136" t="n">
-        <v>1.283750344079338</v>
+        <v>0.001944212975899705</v>
       </c>
     </row>
     <row r="137">
@@ -1525,7 +1525,7 @@
         <v>33.75</v>
       </c>
       <c r="B137" t="n">
-        <v>1.327868641254501</v>
+        <v>0.002018818785950679</v>
       </c>
     </row>
     <row r="138">
@@ -1533,7 +1533,7 @@
         <v>34</v>
       </c>
       <c r="B138" t="n">
-        <v>1.370335779209213</v>
+        <v>0.002095384263889432</v>
       </c>
     </row>
     <row r="139">
@@ -1541,7 +1541,7 @@
         <v>34.25</v>
       </c>
       <c r="B139" t="n">
-        <v>1.411078779072321</v>
+        <v>0.002173901397060832</v>
       </c>
     </row>
     <row r="140">
@@ -1549,7 +1549,7 @@
         <v>34.5</v>
       </c>
       <c r="B140" t="n">
-        <v>1.450026256744642</v>
+        <v>0.00225436140330638</v>
       </c>
     </row>
     <row r="141">
@@ -1557,7 +1557,7 @@
         <v>34.75</v>
       </c>
       <c r="B141" t="n">
-        <v>1.487107354483948</v>
+        <v>0.002336752672044708</v>
       </c>
     </row>
     <row r="142">
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="B142" t="n">
-        <v>1.522258712362953</v>
+        <v>0.002421059981693631</v>
       </c>
     </row>
     <row r="143">
@@ -1573,7 +1573,7 @@
         <v>35.25</v>
       </c>
       <c r="B143" t="n">
-        <v>1.555452088577082</v>
+        <v>0.002507264499703252</v>
       </c>
     </row>
     <row r="144">
@@ -1581,7 +1581,7 @@
         <v>35.5</v>
       </c>
       <c r="B144" t="n">
-        <v>1.586651376933946</v>
+        <v>0.002595343384886434</v>
       </c>
     </row>
     <row r="145">
@@ -1589,7 +1589,7 @@
         <v>35.75</v>
       </c>
       <c r="B145" t="n">
-        <v>1.615820122192885</v>
+        <v>0.002685272425358802</v>
       </c>
     </row>
     <row r="146">
@@ -1597,7 +1597,7 @@
         <v>36</v>
       </c>
       <c r="B146" t="n">
-        <v>1.642923807478051</v>
+        <v>0.002777024243303506</v>
       </c>
     </row>
     <row r="147">
@@ -1605,7 +1605,7 @@
         <v>36.25</v>
       </c>
       <c r="B147" t="n">
-        <v>1.667930488480271</v>
+        <v>0.002870569045606511</v>
       </c>
     </row>
     <row r="148">
@@ -1613,7 +1613,7 @@
         <v>36.5</v>
       </c>
       <c r="B148" t="n">
-        <v>1.690811077984625</v>
+        <v>0.002965874806151886</v>
       </c>
     </row>
     <row r="149">
@@ -1621,7 +1621,7 @@
         <v>36.75</v>
       </c>
       <c r="B149" t="n">
-        <v>1.711539498234327</v>
+        <v>0.003062907393086342</v>
       </c>
     </row>
     <row r="150">
@@ -1629,7 +1629,7 @@
         <v>37</v>
       </c>
       <c r="B150" t="n">
-        <v>1.730092767478184</v>
+        <v>0.003161630897845534</v>
       </c>
     </row>
     <row r="151">
@@ -1637,7 +1637,7 @@
         <v>37.25</v>
       </c>
       <c r="B151" t="n">
-        <v>1.746451049646543</v>
+        <v>0.003262007686469297</v>
       </c>
     </row>
     <row r="152">
@@ -1645,7 +1645,7 @@
         <v>37.5</v>
       </c>
       <c r="B152" t="n">
-        <v>1.760597680141798</v>
+        <v>0.003363997180647242</v>
       </c>
     </row>
     <row r="153">
@@ -1653,7 +1653,7 @@
         <v>37.75</v>
       </c>
       <c r="B153" t="n">
-        <v>1.772519172070862</v>
+        <v>0.003467557728615163</v>
       </c>
     </row>
     <row r="154">
@@ -1661,7 +1661,7 @@
         <v>38</v>
       </c>
       <c r="B154" t="n">
-        <v>1.782205210717358</v>
+        <v>0.003572645929446058</v>
       </c>
     </row>
     <row r="155">
@@ -1669,7 +1669,7 @@
         <v>38.25</v>
       </c>
       <c r="B155" t="n">
-        <v>1.789648636799606</v>
+        <v>0.003679216710061043</v>
       </c>
     </row>
     <row r="156">
@@ -1677,7 +1677,7 @@
         <v>38.5</v>
       </c>
       <c r="B156" t="n">
-        <v>1.794845419945437</v>
+        <v>0.003787223371477824</v>
       </c>
     </row>
     <row r="157">
@@ -1685,7 +1685,7 @@
         <v>38.75</v>
       </c>
       <c r="B157" t="n">
-        <v>1.797794624007945</v>
+        <v>0.0038966176419236</v>
       </c>
     </row>
     <row r="158">
@@ -1693,7 +1693,7 @@
         <v>39</v>
       </c>
       <c r="B158" t="n">
-        <v>1.798498363560002</v>
+        <v>0.004007349732446156</v>
       </c>
     </row>
     <row r="159">
@@ -1701,7 +1701,7 @@
         <v>39.25</v>
       </c>
       <c r="B159" t="n">
-        <v>1.796961760213008</v>
+        <v>0.004119368396644394</v>
       </c>
     </row>
     <row r="160">
@@ -1709,7 +1709,7 @@
         <v>39.5</v>
       </c>
       <c r="B160" t="n">
-        <v>1.793192879818279</v>
+        <v>0.004232620995086071</v>
       </c>
     </row>
     <row r="161">
@@ -1717,7 +1717,7 @@
         <v>39.75</v>
       </c>
       <c r="B161" t="n">
-        <v>1.787202674447322</v>
+        <v>0.00434705356471371</v>
       </c>
     </row>
     <row r="162">
@@ -1725,7 +1725,7 @@
         <v>40</v>
       </c>
       <c r="B162" t="n">
-        <v>1.77900491748378</v>
+        <v>0.004462610893253014</v>
       </c>
     </row>
     <row r="163">
@@ -1733,7 +1733,7 @@
         <v>40.25</v>
       </c>
       <c r="B163" t="n">
-        <v>1.7686161324454</v>
+        <v>0.004579236598418365</v>
       </c>
     </row>
     <row r="164">
@@ -1741,7 +1741,7 @@
         <v>40.5</v>
       </c>
       <c r="B164" t="n">
-        <v>1.756055518138642</v>
+        <v>0.00469687321154233</v>
       </c>
     </row>
     <row r="165">
@@ -1749,7 +1749,7 @@
         <v>40.75</v>
       </c>
       <c r="B165" t="n">
-        <v>1.741344869401591</v>
+        <v>0.004815462265135334</v>
       </c>
     </row>
     <row r="166">
@@ -1757,7 +1757,7 @@
         <v>41</v>
       </c>
       <c r="B166" t="n">
-        <v>1.724508494613198</v>
+        <v>0.004934944383801249</v>
       </c>
     </row>
     <row r="167">
@@ -1765,7 +1765,7 @@
         <v>41.25</v>
       </c>
       <c r="B167" t="n">
-        <v>1.705573130148138</v>
+        <v>0.005055259377888482</v>
       </c>
     </row>
     <row r="168">
@@ -1773,7 +1773,7 @@
         <v>41.5</v>
       </c>
       <c r="B168" t="n">
-        <v>1.684567851870101</v>
+        <v>0.005176346339236995</v>
       </c>
     </row>
     <row r="169">
@@ -1781,7 +1781,7 @@
         <v>41.75</v>
       </c>
       <c r="B169" t="n">
-        <v>1.661523984012177</v>
+        <v>0.005298143738385423</v>
       </c>
     </row>
     <row r="170">
@@ -1789,7 +1789,7 @@
         <v>42</v>
       </c>
       <c r="B170" t="n">
-        <v>1.636475005921861</v>
+        <v>0.005420589522622189</v>
       </c>
     </row>
     <row r="171">
@@ -1797,7 +1797,7 @@
         <v>42.25</v>
       </c>
       <c r="B171" t="n">
-        <v>1.609456456952323</v>
+        <v>0.00554362121429714</v>
       </c>
     </row>
     <row r="172">
@@ -1805,7 +1805,7 @@
         <v>42.5</v>
       </c>
       <c r="B172" t="n">
-        <v>1.58050583972776</v>
+        <v>0.005667176008851079</v>
       </c>
     </row>
     <row r="173">
@@ -1813,7 +1813,7 @@
         <v>42.75</v>
       </c>
       <c r="B173" t="n">
-        <v>1.549662522052023</v>
+        <v>0.005791190872066708</v>
       </c>
     </row>
     <row r="174">
@@ -1821,7 +1821,7 @@
         <v>43</v>
       </c>
       <c r="B174" t="n">
-        <v>1.516967637776478</v>
+        <v>0.005915602636093522</v>
       </c>
     </row>
     <row r="175">
@@ -1829,7 +1829,7 @@
         <v>43.25</v>
       </c>
       <c r="B175" t="n">
-        <v>1.482463986535699</v>
+        <v>0.006040348093848687</v>
       </c>
     </row>
     <row r="176">
@@ -1837,7 +1837,7 @@
         <v>43.5</v>
       </c>
       <c r="B176" t="n">
-        <v>1.446195935552972</v>
+        <v>0.00616536409144458</v>
       </c>
     </row>
     <row r="177">
@@ -1845,7 +1845,7 @@
         <v>43.75</v>
       </c>
       <c r="B177" t="n">
-        <v>1.408209314740572</v>
+        <v>0.006290587618340532</v>
       </c>
     </row>
     <row r="178">
@@ -1853,7 +1853,7 @@
         <v>44</v>
       </c>
       <c r="B178" t="n">
-        <v>1.368551318484018</v>
+        <v>0.00641595589495996</v>
       </c>
     </row>
     <row r="179">
@@ -1861,7 +1861,7 @@
         <v>44.25</v>
       </c>
       <c r="B179" t="n">
-        <v>1.327270405091202</v>
+        <v>0.006541406457555026</v>
       </c>
     </row>
     <row r="180">
@@ -1869,7 +1869,7 @@
         <v>44.5</v>
       </c>
       <c r="B180" t="n">
-        <v>1.284416197234845</v>
+        <v>0.006666877240137799</v>
       </c>
     </row>
     <row r="181">
@@ -1877,7 +1877,7 @@
         <v>44.75</v>
       </c>
       <c r="B181" t="n">
-        <v>1.240039377566761</v>
+        <v>0.006792306653330766</v>
       </c>
     </row>
     <row r="182">
@@ -1885,7 +1885,7 @@
         <v>45</v>
       </c>
       <c r="B182" t="n">
-        <v>1.19419159598583</v>
+        <v>0.006917633660019316</v>
       </c>
     </row>
     <row r="183">
@@ -1893,7 +1893,7 @@
         <v>45.25</v>
       </c>
       <c r="B183" t="n">
-        <v>1.146925368970003</v>
+        <v>0.007042797847715755</v>
       </c>
     </row>
     <row r="184">
@@ -1901,7 +1901,7 @@
         <v>45.5</v>
       </c>
       <c r="B184" t="n">
-        <v>1.098293982293869</v>
+        <v>0.007167739497568006</v>
       </c>
     </row>
     <row r="185">
@@ -1909,7 +1909,7 @@
         <v>45.75</v>
       </c>
       <c r="B185" t="n">
-        <v>1.048351395046693</v>
+        <v>0.007292399649966661</v>
       </c>
     </row>
     <row r="186">
@@ -1917,7 +1917,7 @@
         <v>46</v>
       </c>
       <c r="B186" t="n">
-        <v>0.9971521459447019</v>
+        <v>0.007416720165480941</v>
       </c>
     </row>
     <row r="187">
@@ -1925,7 +1925,7 @@
         <v>46.25</v>
       </c>
       <c r="B187" t="n">
-        <v>0.9447512609332108</v>
+        <v>0.007540643783737061</v>
       </c>
     </row>
     <row r="188">
@@ -1933,7 +1933,7 @@
         <v>46.5</v>
       </c>
       <c r="B188" t="n">
-        <v>0.8912041620417592</v>
+        <v>0.00766411418900456</v>
       </c>
     </row>
     <row r="189">
@@ -1941,7 +1941,7 @@
         <v>46.75</v>
       </c>
       <c r="B189" t="n">
-        <v>0.8365665798572058</v>
+        <v>0.007787076044710821</v>
       </c>
     </row>
     <row r="190">
@@ -1949,7 +1949,7 @@
         <v>47</v>
       </c>
       <c r="B190" t="n">
-        <v>0.7808944612048556</v>
+        <v>0.00790947504900618</v>
       </c>
     </row>
     <row r="191">
@@ -1957,7 +1957,7 @@
         <v>47.25</v>
       </c>
       <c r="B191" t="n">
-        <v>0.7242438889584182</v>
+        <v>0.008031257979735222</v>
       </c>
     </row>
     <row r="192">
@@ -1965,7 +1965,7 @@
         <v>47.5</v>
       </c>
       <c r="B192" t="n">
-        <v>0.6666709964841194</v>
+        <v>0.008152372746076945</v>
       </c>
     </row>
     <row r="193">
@@ -1973,7 +1973,7 @@
         <v>47.75</v>
       </c>
       <c r="B193" t="n">
-        <v>0.6082318914429218</v>
+        <v>0.008272768415612124</v>
       </c>
     </row>
     <row r="194">
@@ -1981,7 +1981,7 @@
         <v>48</v>
       </c>
       <c r="B194" t="n">
-        <v>0.548982573092382</v>
+        <v>0.00839239650737858</v>
       </c>
     </row>
     <row r="195">
@@ -1989,7 +1989,7 @@
         <v>48.25</v>
       </c>
       <c r="B195" t="n">
-        <v>0.4889788576760748</v>
+        <v>0.008511243451456527</v>
       </c>
     </row>
     <row r="196">
@@ -1997,7 +1997,7 @@
         <v>48.5</v>
       </c>
       <c r="B196" t="n">
-        <v>0.4282763058521999</v>
+        <v>0.008629301699668733</v>
       </c>
     </row>
     <row r="197">
@@ -2005,7 +2005,7 @@
         <v>48.75</v>
       </c>
       <c r="B197" t="n">
-        <v>0.3669301516686221</v>
+        <v>0.008746568995274519</v>
       </c>
     </row>
     <row r="198">
@@ -2013,7 +2013,7 @@
         <v>49</v>
       </c>
       <c r="B198" t="n">
-        <v>0.3049952345424968</v>
+        <v>0.008863050922338691</v>
       </c>
     </row>
     <row r="199">
@@ -2021,7 +2021,7 @@
         <v>49.25</v>
       </c>
       <c r="B199" t="n">
-        <v>0.2425259342797392</v>
+        <v>0.008978758922929155</v>
       </c>
     </row>
     <row r="200">
@@ -2029,7 +2029,7 @@
         <v>49.5</v>
       </c>
       <c r="B200" t="n">
-        <v>0.179576108788108</v>
+        <v>0.009093707495523434</v>
       </c>
     </row>
     <row r="201">
@@ -2037,7 +2037,7 @@
         <v>49.75</v>
       </c>
       <c r="B201" t="n">
-        <v>0.1161990356000287</v>
+        <v>0.009207913615674955</v>
       </c>
     </row>
     <row r="202">
@@ -2045,7 +2045,7 @@
         <v>50</v>
       </c>
       <c r="B202" t="n">
-        <v>0.05237807946326205</v>
+        <v>0.009321394729616569</v>
       </c>
     </row>
     <row r="203">
@@ -2053,7 +2053,7 @@
         <v>50.25</v>
       </c>
       <c r="B203" t="n">
-        <v>0</v>
+        <v>0.009434168099027682</v>
       </c>
     </row>
     <row r="204">
@@ -2061,7 +2061,7 @@
         <v>50.5</v>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
+        <v>0.00954625096082036</v>
       </c>
     </row>
     <row r="205">
@@ -2069,7 +2069,7 @@
         <v>50.75</v>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>0.009657659804054374</v>
       </c>
     </row>
     <row r="206">
@@ -2077,7 +2077,7 @@
         <v>51</v>
       </c>
       <c r="B206" t="n">
-        <v>0</v>
+        <v>0.009768410204159748</v>
       </c>
     </row>
     <row r="207">
@@ -2085,7 +2085,7 @@
         <v>51.25</v>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>0.009878516802993773</v>
       </c>
     </row>
     <row r="208">
@@ -2093,7 +2093,7 @@
         <v>51.5</v>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>0.009987993392938229</v>
       </c>
     </row>
     <row r="209">
@@ -2101,7 +2101,7 @@
         <v>51.75</v>
       </c>
       <c r="B209" t="n">
-        <v>0</v>
+        <v>0.0100968530714338</v>
       </c>
     </row>
     <row r="210">
@@ -2109,7 +2109,7 @@
         <v>52</v>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>0.01020510843744543</v>
       </c>
     </row>
     <row r="211">
@@ -2117,7 +2117,7 @@
         <v>52.25</v>
       </c>
       <c r="B211" t="n">
-        <v>0</v>
+        <v>0.0103127718069407</v>
       </c>
     </row>
     <row r="212">
@@ -2125,7 +2125,7 @@
         <v>52.5</v>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>0.01041985542984096</v>
       </c>
     </row>
     <row r="213">
@@ -2133,7 +2133,7 @@
         <v>52.75</v>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>0.0105263714077105</v>
       </c>
     </row>
     <row r="214">
@@ -2141,7 +2141,7 @@
         <v>53</v>
       </c>
       <c r="B214" t="n">
-        <v>0</v>
+        <v>0.01063233265435703</v>
       </c>
     </row>
     <row r="215">
@@ -2149,7 +2149,7 @@
         <v>53.25</v>
       </c>
       <c r="B215" t="n">
-        <v>0</v>
+        <v>0.01073775284631891</v>
       </c>
     </row>
     <row r="216">
@@ -2157,7 +2157,7 @@
         <v>53.5</v>
       </c>
       <c r="B216" t="n">
-        <v>0</v>
+        <v>0.01084264530477819</v>
       </c>
     </row>
     <row r="217">
@@ -2165,7 +2165,7 @@
         <v>53.75</v>
       </c>
       <c r="B217" t="n">
-        <v>0</v>
+        <v>0.01094702429018493</v>
       </c>
     </row>
     <row r="218">
@@ -2173,7 +2173,7 @@
         <v>54</v>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>0.01105090557628259</v>
       </c>
     </row>
     <row r="219">
@@ -2181,7 +2181,7 @@
         <v>54.25</v>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>0.01115430537394284</v>
       </c>
     </row>
     <row r="220">
@@ -2189,7 +2189,7 @@
         <v>54.5</v>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>0.01125724080599993</v>
       </c>
     </row>
     <row r="221">
@@ -2197,7 +2197,7 @@
         <v>54.75</v>
       </c>
       <c r="B221" t="n">
-        <v>0</v>
+        <v>0.01135972990927897</v>
       </c>
     </row>
     <row r="222">
@@ -2205,7 +2205,7 @@
         <v>55</v>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>0.01146179163698531</v>
       </c>
     </row>
     <row r="223">
@@ -2213,7 +2213,7 @@
         <v>55.25</v>
       </c>
       <c r="B223" t="n">
-        <v>0</v>
+        <v>0.01156344584556061</v>
       </c>
     </row>
     <row r="224">
@@ -2221,7 +2221,7 @@
         <v>55.5</v>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>0.01166471327160579</v>
       </c>
     </row>
     <row r="225">
@@ -2229,7 +2229,7 @@
         <v>55.75</v>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>0.01176561550090092</v>
       </c>
     </row>
     <row r="226">
@@ -2237,7 +2237,7 @@
         <v>56</v>
       </c>
       <c r="B226" t="n">
-        <v>0</v>
+        <v>0.01186617493156709</v>
       </c>
     </row>
     <row r="227">
@@ -2245,7 +2245,7 @@
         <v>56.25</v>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>0.01196641473306883</v>
       </c>
     </row>
     <row r="228">
@@ -2253,7 +2253,7 @@
         <v>56.5</v>
       </c>
       <c r="B228" t="n">
-        <v>0</v>
+        <v>0.01206635880246372</v>
       </c>
     </row>
     <row r="229">
@@ -2261,7 +2261,7 @@
         <v>56.75</v>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>0.01216603171903585</v>
       </c>
     </row>
     <row r="230">
@@ -2269,7 +2269,7 @@
         <v>57</v>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>0.01226545869820997</v>
       </c>
     </row>
     <row r="231">
@@ -2277,7 +2277,7 @@
         <v>57.25</v>
       </c>
       <c r="B231" t="n">
-        <v>0</v>
+        <v>0.01236466554543642</v>
       </c>
     </row>
     <row r="232">
@@ -2285,7 +2285,7 @@
         <v>57.5</v>
       </c>
       <c r="B232" t="n">
-        <v>0</v>
+        <v>0.01246367861056314</v>
       </c>
     </row>
     <row r="233">
@@ -2293,7 +2293,7 @@
         <v>57.75</v>
       </c>
       <c r="B233" t="n">
-        <v>0</v>
+        <v>0.01256252474306654</v>
       </c>
     </row>
     <row r="234">
@@ -2301,7 +2301,7 @@
         <v>58</v>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>0.01266123124833006</v>
       </c>
     </row>
     <row r="235">
@@ -2309,7 +2309,7 @@
         <v>58.25</v>
       </c>
       <c r="B235" t="n">
-        <v>0</v>
+        <v>0.01275982584603619</v>
       </c>
     </row>
     <row r="236">
@@ -2317,7 +2317,7 @@
         <v>58.5</v>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>0.01285833662723561</v>
       </c>
     </row>
     <row r="237">
@@ -2325,7 +2325,7 @@
         <v>58.75</v>
       </c>
       <c r="B237" t="n">
-        <v>0</v>
+        <v>0.0129567920162572</v>
       </c>
     </row>
     <row r="238">
@@ -2333,7 +2333,7 @@
         <v>59</v>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>0.01305522073299789</v>
       </c>
     </row>
     <row r="239">
@@ -2341,7 +2341,7 @@
         <v>59.25</v>
       </c>
       <c r="B239" t="n">
-        <v>0</v>
+        <v>0.01315365175502655</v>
       </c>
     </row>
     <row r="240">
@@ -2349,7 +2349,7 @@
         <v>59.5</v>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>0.0132521142825524</v>
       </c>
     </row>
     <row r="241">
@@ -2357,7 +2357,7 @@
         <v>59.75</v>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>0.01335063770427939</v>
       </c>
     </row>
     <row r="242">
@@ -2365,7 +2365,7 @@
         <v>60</v>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>0.01344925156449872</v>
       </c>
     </row>
     <row r="243">
@@ -2373,7 +2373,7 @@
         <v>60.25</v>
       </c>
       <c r="B243" t="n">
-        <v>0</v>
+        <v>0.01354798553135035</v>
       </c>
     </row>
     <row r="244">
@@ -2381,7 +2381,7 @@
         <v>60.5</v>
       </c>
       <c r="B244" t="n">
-        <v>0</v>
+        <v>0.01364686936619156</v>
       </c>
     </row>
     <row r="245">
@@ -2389,7 +2389,7 @@
         <v>60.75</v>
       </c>
       <c r="B245" t="n">
-        <v>0</v>
+        <v>0.01374593289401308</v>
       </c>
     </row>
     <row r="246">
@@ -2397,7 +2397,7 @@
         <v>61</v>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>0.01384520597484653</v>
       </c>
     </row>
     <row r="247">
@@ -2405,7 +2405,7 @@
         <v>61.25</v>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>0.01394471847611116</v>
       </c>
     </row>
     <row r="248">
@@ -2413,7 +2413,7 @@
         <v>61.5</v>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>0.01404450024585274</v>
       </c>
     </row>
     <row r="249">
@@ -2421,7 +2421,7 @@
         <v>61.75</v>
       </c>
       <c r="B249" t="n">
-        <v>0</v>
+        <v>0.01414458108713656</v>
       </c>
     </row>
     <row r="250">
@@ -2429,7 +2429,7 @@
         <v>62</v>
       </c>
       <c r="B250" t="n">
-        <v>0</v>
+        <v>0.01424499058387804</v>
       </c>
     </row>
     <row r="251">
@@ -2437,7 +2437,7 @@
         <v>62.25</v>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>0.01434575386339151</v>
       </c>
     </row>
     <row r="252">
@@ -2445,7 +2445,7 @@
         <v>62.5</v>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>0.01444689423063901</v>
       </c>
     </row>
     <row r="253">
@@ -2453,7 +2453,7 @@
         <v>62.75</v>
       </c>
       <c r="B253" t="n">
-        <v>0</v>
+        <v>0.01454843607967233</v>
       </c>
     </row>
     <row r="254">
@@ -2461,7 +2461,7 @@
         <v>63</v>
       </c>
       <c r="B254" t="n">
-        <v>0</v>
+        <v>0.01465041347880496</v>
       </c>
     </row>
     <row r="255">
@@ -2469,7 +2469,7 @@
         <v>63.25</v>
       </c>
       <c r="B255" t="n">
-        <v>0</v>
+        <v>0.01475283154476136</v>
       </c>
     </row>
     <row r="256">
@@ -2477,7 +2477,7 @@
         <v>63.5</v>
       </c>
       <c r="B256" t="n">
-        <v>0</v>
+        <v>0.01485569392793408</v>
       </c>
     </row>
     <row r="257">
@@ -2485,7 +2485,7 @@
         <v>63.75</v>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>0.01495903298527058</v>
       </c>
     </row>
     <row r="258">
@@ -2493,7 +2493,7 @@
         <v>64</v>
       </c>
       <c r="B258" t="n">
-        <v>0</v>
+        <v>0.01506286757729566</v>
       </c>
     </row>
     <row r="259">
@@ -2501,7 +2501,7 @@
         <v>64.25</v>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
+        <v>0.01516721629866672</v>
       </c>
     </row>
     <row r="260">
@@ -2509,7 +2509,7 @@
         <v>64.5</v>
       </c>
       <c r="B260" t="n">
-        <v>0</v>
+        <v>0.01527209774266695</v>
       </c>
     </row>
     <row r="261">
@@ -2517,7 +2517,7 @@
         <v>64.75</v>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>0.01537753057054234</v>
       </c>
     </row>
     <row r="262">
@@ -2525,7 +2525,7 @@
         <v>65</v>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>0.01548353352360983</v>
       </c>
     </row>
     <row r="263">
@@ -2533,7 +2533,7 @@
         <v>65.25</v>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>0.015590125406226</v>
       </c>
     </row>
     <row r="264">
@@ -2541,7 +2541,7 @@
         <v>65.5</v>
       </c>
       <c r="B264" t="n">
-        <v>0</v>
+        <v>0.01569732504758153</v>
       </c>
     </row>
     <row r="265">
@@ -2549,7 +2549,7 @@
         <v>65.75</v>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>0.01580515124985646</v>
       </c>
     </row>
     <row r="266">
@@ -2557,7 +2557,7 @@
         <v>66</v>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>0.01591362264174719</v>
       </c>
     </row>
     <row r="267">
@@ -2565,7 +2565,7 @@
         <v>66.25</v>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>0.01602275769656602</v>
       </c>
     </row>
     <row r="268">
@@ -2573,7 +2573,7 @@
         <v>66.5</v>
       </c>
       <c r="B268" t="n">
-        <v>0</v>
+        <v>0.01613257521223627</v>
       </c>
     </row>
     <row r="269">
@@ -2581,7 +2581,7 @@
         <v>66.75</v>
       </c>
       <c r="B269" t="n">
-        <v>0</v>
+        <v>0.0162430930444657</v>
       </c>
     </row>
     <row r="270">
@@ -2589,7 +2589,7 @@
         <v>67</v>
       </c>
       <c r="B270" t="n">
-        <v>0</v>
+        <v>0.01635432873190298</v>
       </c>
     </row>
     <row r="271">
@@ -2597,7 +2597,7 @@
         <v>67.25</v>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>0.01646629991451651</v>
       </c>
     </row>
     <row r="272">
@@ -2605,7 +2605,7 @@
         <v>67.5</v>
       </c>
       <c r="B272" t="n">
-        <v>0</v>
+        <v>0.01657902364227981</v>
       </c>
     </row>
     <row r="273">
@@ -2613,7 +2613,7 @@
         <v>67.75</v>
       </c>
       <c r="B273" t="n">
-        <v>0</v>
+        <v>0.01669251649973634</v>
       </c>
     </row>
     <row r="274">
@@ -2621,7 +2621,7 @@
         <v>68</v>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>0.01680679461726128</v>
       </c>
     </row>
     <row r="275">
@@ -2629,7 +2629,7 @@
         <v>68.25</v>
       </c>
       <c r="B275" t="n">
-        <v>0</v>
+        <v>0.01692187364610731</v>
       </c>
     </row>
     <row r="276">
@@ -2637,7 +2637,7 @@
         <v>68.5</v>
       </c>
       <c r="B276" t="n">
-        <v>0</v>
+        <v>0.01703776874262742</v>
       </c>
     </row>
     <row r="277">
@@ -2645,7 +2645,7 @@
         <v>68.75</v>
       </c>
       <c r="B277" t="n">
-        <v>0</v>
+        <v>0.01715449455582656</v>
       </c>
     </row>
     <row r="278">
@@ -2653,7 +2653,7 @@
         <v>69</v>
       </c>
       <c r="B278" t="n">
-        <v>0</v>
+        <v>0.01727206521823468</v>
       </c>
     </row>
     <row r="279">
@@ -2661,7 +2661,7 @@
         <v>69.25</v>
       </c>
       <c r="B279" t="n">
-        <v>0</v>
+        <v>0.01739049433942448</v>
       </c>
     </row>
     <row r="280">
@@ -2669,7 +2669,7 @@
         <v>69.5</v>
       </c>
       <c r="B280" t="n">
-        <v>0</v>
+        <v>0.0175097950016515</v>
       </c>
     </row>
     <row r="281">
@@ -2677,7 +2677,7 @@
         <v>69.75</v>
       </c>
       <c r="B281" t="n">
-        <v>0</v>
+        <v>0.01762997975725737</v>
       </c>
     </row>
     <row r="282">
@@ -2685,7 +2685,7 @@
         <v>70</v>
       </c>
       <c r="B282" t="n">
-        <v>0</v>
+        <v>0.01775106062891314</v>
       </c>
     </row>
     <row r="283">
@@ -2693,7 +2693,7 @@
         <v>70.25</v>
       </c>
       <c r="B283" t="n">
-        <v>0</v>
+        <v>0.01787304910327909</v>
       </c>
     </row>
     <row r="284">
@@ -2701,7 +2701,7 @@
         <v>70.5</v>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>0.0179959561365977</v>
       </c>
     </row>
     <row r="285">
@@ -2709,7 +2709,7 @@
         <v>70.75</v>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>0.01811979215764799</v>
       </c>
     </row>
     <row r="286">
@@ -2717,7 +2717,7 @@
         <v>71</v>
       </c>
       <c r="B286" t="n">
-        <v>0</v>
+        <v>0.0182445670653761</v>
       </c>
     </row>
     <row r="287">
@@ -2725,7 +2725,7 @@
         <v>71.25</v>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>0.01837029022959135</v>
       </c>
     </row>
     <row r="288">
@@ -2733,7 +2733,7 @@
         <v>71.5</v>
       </c>
       <c r="B288" t="n">
-        <v>0</v>
+        <v>0.01849697049215941</v>
       </c>
     </row>
     <row r="289">
@@ -2741,7 +2741,7 @@
         <v>71.75</v>
       </c>
       <c r="B289" t="n">
-        <v>0</v>
+        <v>0.01862461617593357</v>
       </c>
     </row>
     <row r="290">
@@ -2749,7 +2749,7 @@
         <v>72</v>
       </c>
       <c r="B290" t="n">
-        <v>0</v>
+        <v>0.01875323508178985</v>
       </c>
     </row>
     <row r="291">
@@ -2757,7 +2757,7 @@
         <v>72.25</v>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>0.01888283449237487</v>
       </c>
     </row>
     <row r="292">
@@ -2765,7 +2765,7 @@
         <v>72.5</v>
       </c>
       <c r="B292" t="n">
-        <v>0</v>
+        <v>0.01901342117059393</v>
       </c>
     </row>
     <row r="293">
@@ -2773,7 +2773,7 @@
         <v>72.75</v>
       </c>
       <c r="B293" t="n">
-        <v>0</v>
+        <v>0.01914500136987917</v>
       </c>
     </row>
     <row r="294">
@@ -2781,7 +2781,7 @@
         <v>73</v>
       </c>
       <c r="B294" t="n">
-        <v>0</v>
+        <v>0.01927758083448366</v>
       </c>
     </row>
     <row r="295">
@@ -2789,7 +2789,7 @@
         <v>73.25</v>
       </c>
       <c r="B295" t="n">
-        <v>0</v>
+        <v>0.01941116480265039</v>
       </c>
     </row>
     <row r="296">
@@ -2797,7 +2797,7 @@
         <v>73.5</v>
       </c>
       <c r="B296" t="n">
-        <v>0</v>
+        <v>0.01954575800634668</v>
       </c>
     </row>
     <row r="297">
@@ -2805,7 +2805,7 @@
         <v>73.75</v>
       </c>
       <c r="B297" t="n">
-        <v>0</v>
+        <v>0.01968136467931729</v>
       </c>
     </row>
     <row r="298">
@@ -2813,7 +2813,7 @@
         <v>74</v>
       </c>
       <c r="B298" t="n">
-        <v>0</v>
+        <v>0.01981798856266178</v>
       </c>
     </row>
     <row r="299">
@@ -2821,7 +2821,7 @@
         <v>74.25</v>
       </c>
       <c r="B299" t="n">
-        <v>0</v>
+        <v>0.01995563290599946</v>
       </c>
     </row>
     <row r="300">
@@ -2829,7 +2829,7 @@
         <v>74.5</v>
       </c>
       <c r="B300" t="n">
-        <v>0</v>
+        <v>0.02009430047116326</v>
       </c>
     </row>
     <row r="301">
@@ -2837,7 +2837,7 @@
         <v>74.75</v>
       </c>
       <c r="B301" t="n">
-        <v>0</v>
+        <v>0.0202339935363556</v>
       </c>
     </row>
     <row r="302">
@@ -2845,7 +2845,7 @@
         <v>75</v>
       </c>
       <c r="B302" t="n">
-        <v>0</v>
+        <v>0.02037471390641776</v>
       </c>
     </row>
     <row r="303">
@@ -2853,7 +2853,7 @@
         <v>75.25</v>
       </c>
       <c r="B303" t="n">
-        <v>0</v>
+        <v>0.02051646291374853</v>
       </c>
     </row>
     <row r="304">
@@ -2861,7 +2861,7 @@
         <v>75.5</v>
       </c>
       <c r="B304" t="n">
-        <v>0</v>
+        <v>0.02065924142467252</v>
       </c>
     </row>
     <row r="305">
@@ -2869,7 +2869,7 @@
         <v>75.75</v>
       </c>
       <c r="B305" t="n">
-        <v>0</v>
+        <v>0.02080304984188291</v>
       </c>
     </row>
     <row r="306">
@@ -2877,7 +2877,7 @@
         <v>76</v>
       </c>
       <c r="B306" t="n">
-        <v>0.001009015738970583</v>
+        <v>0.0209478876080898</v>
       </c>
     </row>
     <row r="307">
@@ -2885,7 +2885,7 @@
         <v>76.25</v>
       </c>
       <c r="B307" t="n">
-        <v>0.06511653650693458</v>
+        <v>0.02109373753375121</v>
       </c>
     </row>
     <row r="308">
@@ -2893,7 +2893,7 @@
         <v>76.5</v>
       </c>
       <c r="B308" t="n">
-        <v>0.1392840083675058</v>
+        <v>0.02124057506251243</v>
       </c>
     </row>
     <row r="309">
@@ -2901,7 +2901,7 @@
         <v>76.75</v>
       </c>
       <c r="B309" t="n">
-        <v>0.2138456218514005</v>
+        <v>0.02138840636029472</v>
       </c>
     </row>
     <row r="310">
@@ -2909,7 +2909,7 @@
         <v>77</v>
       </c>
       <c r="B310" t="n">
-        <v>0.2887731666015886</v>
+        <v>0.02153713829250691</v>
       </c>
     </row>
     <row r="311">
@@ -2917,7 +2917,7 @@
         <v>77.25</v>
       </c>
       <c r="B311" t="n">
-        <v>0.3640396104548058</v>
+        <v>0.02168672242134617</v>
       </c>
     </row>
     <row r="312">
@@ -2925,7 +2925,7 @@
         <v>77.5</v>
       </c>
       <c r="B312" t="n">
-        <v>0.4396191017183302</v>
+        <v>0.02183709019054116</v>
       </c>
     </row>
     <row r="313">
@@ -2933,7 +2933,7 @@
         <v>77.75</v>
       </c>
       <c r="B313" t="n">
-        <v>0.5154869671922123</v>
+        <v>0.02198820780624831</v>
       </c>
     </row>
     <row r="314">
@@ -2941,7 +2941,7 @@
         <v>78</v>
       </c>
       <c r="B314" t="n">
-        <v>0.5916197058695966</v>
+        <v>0.02214004563792787</v>
       </c>
     </row>
     <row r="315">
@@ -2949,7 +2949,7 @@
         <v>78.25</v>
       </c>
       <c r="B315" t="n">
-        <v>0.6679949782278141</v>
+        <v>0.02229255787086987</v>
       </c>
     </row>
     <row r="316">
@@ -2957,7 +2957,7 @@
         <v>78.5</v>
       </c>
       <c r="B316" t="n">
-        <v>0.7445915909965631</v>
+        <v>0.02244570066592241</v>
       </c>
     </row>
     <row r="317">
@@ -2965,7 +2965,7 @@
         <v>78.75</v>
       </c>
       <c r="B317" t="n">
-        <v>0.8213894772571625</v>
+        <v>0.02259943248718611</v>
       </c>
     </row>
     <row r="318">
@@ -2973,7 +2973,7 @@
         <v>79</v>
       </c>
       <c r="B318" t="n">
-        <v>0.8983696716855256</v>
+        <v>0.02275371414929834</v>
       </c>
     </row>
     <row r="319">
@@ -2981,7 +2981,7 @@
         <v>79.25</v>
       </c>
       <c r="B319" t="n">
-        <v>0.9755132403926007</v>
+        <v>0.02290850871740323</v>
       </c>
     </row>
     <row r="320">
@@ -2989,7 +2989,7 @@
         <v>79.5</v>
       </c>
       <c r="B320" t="n">
-        <v>1.052738875001477</v>
+        <v>0.02306378129589658</v>
       </c>
     </row>
     <row r="321">
@@ -2997,7 +2997,7 @@
         <v>79.75</v>
       </c>
       <c r="B321" t="n">
-        <v>1.129934413221252</v>
+        <v>0.02321949875461616</v>
       </c>
     </row>
     <row r="322">
@@ -3005,7 +3005,7 @@
         <v>80</v>
       </c>
       <c r="B322" t="n">
-        <v>1.207027349037032</v>
+        <v>0.02337562943076075</v>
       </c>
     </row>
     <row r="323">
@@ -3013,7 +3013,7 @@
         <v>80.25</v>
       </c>
       <c r="B323" t="n">
-        <v>1.283952569951797</v>
+        <v>0.02353214283481936</v>
       </c>
     </row>
     <row r="324">
@@ -3021,7 +3021,7 @@
         <v>80.5</v>
       </c>
       <c r="B324" t="n">
-        <v>1.360647833139427</v>
+        <v>0.02368900966731811</v>
       </c>
     </row>
     <row r="325">
@@ -3029,7 +3029,7 @@
         <v>80.75</v>
       </c>
       <c r="B325" t="n">
-        <v>1.437050562987477</v>
+        <v>0.02384620079411583</v>
       </c>
     </row>
     <row r="326">
@@ -3037,7 +3037,7 @@
         <v>81</v>
       </c>
       <c r="B326" t="n">
-        <v>1.513099337946851</v>
+        <v>0.02400368744500573</v>
       </c>
     </row>
     <row r="327">
@@ -3045,7 +3045,7 @@
         <v>81.25</v>
       </c>
       <c r="B327" t="n">
-        <v>1.588731428751079</v>
+        <v>0.02416144205747994</v>
       </c>
     </row>
     <row r="328">
@@ -3053,7 +3053,7 @@
         <v>81.5</v>
       </c>
       <c r="B328" t="n">
-        <v>1.663883469679899</v>
+        <v>0.02431943599082031</v>
       </c>
     </row>
     <row r="329">
@@ -3061,7 +3061,7 @@
         <v>81.75</v>
       </c>
       <c r="B329" t="n">
-        <v>1.738490947642401</v>
+        <v>0.02447764213988186</v>
       </c>
     </row>
     <row r="330">
@@ -3069,7 +3069,7 @@
         <v>82</v>
       </c>
       <c r="B330" t="n">
-        <v>1.812488008123141</v>
+        <v>0.0246360322181611</v>
       </c>
     </row>
     <row r="331">
@@ -3077,7 +3077,7 @@
         <v>82.25</v>
       </c>
       <c r="B331" t="n">
-        <v>1.885807311877109</v>
+        <v>0.02479457881079973</v>
       </c>
     </row>
     <row r="332">
@@ -3085,7 +3085,7 @@
         <v>82.5</v>
       </c>
       <c r="B332" t="n">
-        <v>1.958379754743859</v>
+        <v>0.02495325427440889</v>
       </c>
     </row>
     <row r="333">
@@ -3093,7 +3093,7 @@
         <v>82.75</v>
       </c>
       <c r="B333" t="n">
-        <v>2.030134361875466</v>
+        <v>0.02511203070360954</v>
       </c>
     </row>
     <row r="334">
@@ -3101,7 +3101,7 @@
         <v>83</v>
       </c>
       <c r="B334" t="n">
-        <v>2.100998319091456</v>
+        <v>0.02527088109017947</v>
       </c>
     </row>
     <row r="335">
@@ -3109,7 +3109,7 @@
         <v>83.25</v>
       </c>
       <c r="B335" t="n">
-        <v>2.170895415433476</v>
+        <v>0.0254297773390718</v>
       </c>
     </row>
     <row r="336">
@@ -3117,7 +3117,7 @@
         <v>83.5</v>
       </c>
       <c r="B336" t="n">
-        <v>2.239746188941418</v>
+        <v>0.02558869280626546</v>
       </c>
     </row>
     <row r="337">
@@ -3125,7 +3125,7 @@
         <v>83.75</v>
       </c>
       <c r="B337" t="n">
-        <v>2.307465317274906</v>
+        <v>0.02574759985204863</v>
       </c>
     </row>
     <row r="338">
@@ -3133,7 +3133,7 @@
         <v>84</v>
       </c>
       <c r="B338" t="n">
-        <v>2.373948033592246</v>
+        <v>0.02590647180792565</v>
       </c>
     </row>
     <row r="339">
@@ -3141,7 +3141,7 @@
         <v>84.25</v>
       </c>
       <c r="B339" t="n">
-        <v>2.439093968015992</v>
+        <v>0.02606528199597849</v>
       </c>
     </row>
     <row r="340">
@@ -3149,7 +3149,7 @@
         <v>84.5</v>
       </c>
       <c r="B340" t="n">
-        <v>2.502822733362457</v>
+        <v>0.02622400373058132</v>
       </c>
     </row>
     <row r="341">
@@ -3157,7 +3157,7 @@
         <v>84.75</v>
       </c>
       <c r="B341" t="n">
-        <v>2.565051920266352</v>
+        <v>0.02638261137698707</v>
       </c>
     </row>
     <row r="342">
@@ -3165,7 +3165,7 @@
         <v>85</v>
       </c>
       <c r="B342" t="n">
-        <v>2.625697477471004</v>
+        <v>0.02654107857822968</v>
       </c>
     </row>
     <row r="343">
@@ -3173,7 +3173,7 @@
         <v>85.25</v>
       </c>
       <c r="B343" t="n">
-        <v>2.684669989856711</v>
+        <v>0.02669938050989083</v>
       </c>
     </row>
     <row r="344">
@@ -3181,7 +3181,7 @@
         <v>85.5</v>
       </c>
       <c r="B344" t="n">
-        <v>2.741854739908319</v>
+        <v>0.02685749171796022</v>
       </c>
     </row>
     <row r="345">
@@ -3189,7 +3189,7 @@
         <v>85.75</v>
       </c>
       <c r="B345" t="n">
-        <v>2.797138260865985</v>
+        <v>0.02701538783076101</v>
       </c>
     </row>
     <row r="346">
@@ -3197,7 +3197,7 @@
         <v>86</v>
       </c>
       <c r="B346" t="n">
-        <v>2.850391532253397</v>
+        <v>0.02717304469605155</v>
       </c>
     </row>
     <row r="347">
@@ -3205,7 +3205,7 @@
         <v>86.25</v>
       </c>
       <c r="B347" t="n">
-        <v>2.901549720927664</v>
+        <v>0.02733043838110896</v>
       </c>
     </row>
     <row r="348">
@@ -3213,7 +3213,7 @@
         <v>86.5</v>
       </c>
       <c r="B348" t="n">
-        <v>2.950627872392293</v>
+        <v>0.02748754604740959</v>
       </c>
     </row>
     <row r="349">
@@ -3221,7 +3221,7 @@
         <v>86.75</v>
       </c>
       <c r="B349" t="n">
-        <v>2.997593083697334</v>
+        <v>0.02764434446714905</v>
       </c>
     </row>
     <row r="350">
@@ -3229,7 +3229,7 @@
         <v>87</v>
       </c>
       <c r="B350" t="n">
-        <v>3.0424019306555</v>
+        <v>0.02780081187309692</v>
       </c>
     </row>
     <row r="351">
@@ -3237,7 +3237,7 @@
         <v>87.25</v>
       </c>
       <c r="B351" t="n">
-        <v>3.085006655892474</v>
+        <v>0.02795692618147442</v>
       </c>
     </row>
     <row r="352">
@@ -3245,7 +3245,7 @@
         <v>87.5</v>
       </c>
       <c r="B352" t="n">
-        <v>3.12535722404179</v>
+        <v>0.02811266637335877</v>
       </c>
     </row>
     <row r="353">
@@ -3253,7 +3253,7 @@
         <v>87.75</v>
       </c>
       <c r="B353" t="n">
-        <v>3.163402277454471</v>
+        <v>0.02826801179003709</v>
       </c>
     </row>
     <row r="354">
@@ -3261,7 +3261,7 @@
         <v>88</v>
       </c>
       <c r="B354" t="n">
-        <v>3.199089677764471</v>
+        <v>0.02842294213369581</v>
       </c>
     </row>
     <row r="355">
@@ -3269,7 +3269,7 @@
         <v>88.25</v>
       </c>
       <c r="B355" t="n">
-        <v>3.232366858207469</v>
+        <v>0.02857743813868987</v>
       </c>
     </row>
     <row r="356">
@@ -3277,7 +3277,7 @@
         <v>88.5</v>
       </c>
       <c r="B356" t="n">
-        <v>3.263181064625308</v>
+        <v>0.02873148042340941</v>
       </c>
     </row>
     <row r="357">
@@ -3285,7 +3285,7 @@
         <v>88.75</v>
       </c>
       <c r="B357" t="n">
-        <v>3.291479540180644</v>
+        <v>0.02888505089712147</v>
       </c>
     </row>
     <row r="358">
@@ -3293,7 +3293,7 @@
         <v>89</v>
       </c>
       <c r="B358" t="n">
-        <v>3.317209659886563</v>
+        <v>0.0290381314107371</v>
       </c>
     </row>
     <row r="359">
@@ -3301,7 +3301,7 @@
         <v>89.25</v>
       </c>
       <c r="B359" t="n">
-        <v>3.340319045009544</v>
+        <v>0.02919070478762886</v>
       </c>
     </row>
     <row r="360">
@@ -3309,7 +3309,7 @@
         <v>89.5</v>
       </c>
       <c r="B360" t="n">
-        <v>3.360755668363254</v>
+        <v>0.02934275429369116</v>
       </c>
     </row>
     <row r="361">
@@ -3317,7 +3317,7 @@
         <v>89.75</v>
       </c>
       <c r="B361" t="n">
-        <v>3.37846795563708</v>
+        <v>0.02949426364086027</v>
       </c>
     </row>
     <row r="362">
@@ -3325,7 +3325,7 @@
         <v>90</v>
       </c>
       <c r="B362" t="n">
-        <v>3.393404882697479</v>
+        <v>0.02964521745566304</v>
       </c>
     </row>
     <row r="363">
@@ -3333,7 +3333,7 @@
         <v>90.25</v>
       </c>
       <c r="B363" t="n">
-        <v>3.405516072800787</v>
+        <v>0.0297956004730883</v>
       </c>
     </row>
     <row r="364">
@@ -3341,7 +3341,7 @@
         <v>90.5</v>
       </c>
       <c r="B364" t="n">
-        <v>3.41475188872981</v>
+        <v>0.02994539850272985</v>
       </c>
     </row>
     <row r="365">
@@ -3349,7 +3349,7 @@
         <v>90.75</v>
       </c>
       <c r="B365" t="n">
-        <v>3.421063525813711</v>
+        <v>0.03009459750725921</v>
       </c>
     </row>
     <row r="366">
@@ -3357,7 +3357,7 @@
         <v>91</v>
       </c>
       <c r="B366" t="n">
-        <v>3.424403107928564</v>
+        <v>0.03024318428959828</v>
       </c>
     </row>
     <row r="367">
@@ -3365,7 +3365,7 @@
         <v>91.25</v>
       </c>
       <c r="B367" t="n">
-        <v>3.424723787690207</v>
+        <v>0.03039114613659653</v>
       </c>
     </row>
     <row r="368">
@@ -3373,7 +3373,7 @@
         <v>91.5</v>
       </c>
       <c r="B368" t="n">
-        <v>3.421979850461785</v>
+        <v>0.03053847082557197</v>
       </c>
     </row>
     <row r="369">
@@ -3381,7 +3381,7 @@
         <v>91.75</v>
       </c>
       <c r="B369" t="n">
-        <v>3.41612682030722</v>
+        <v>0.03068514690130261</v>
       </c>
     </row>
     <row r="370">
@@ -3389,7 +3389,7 @@
         <v>92</v>
       </c>
       <c r="B370" t="n">
-        <v>3.407121575620168</v>
+        <v>0.03083116319569818</v>
       </c>
     </row>
     <row r="371">
@@ -3397,7 +3397,7 @@
         <v>92.25</v>
       </c>
       <c r="B371" t="n">
-        <v>3.394922462468244</v>
+        <v>0.03097650937934301</v>
       </c>
     </row>
     <row r="372">
@@ -3405,7 +3405,7 @@
         <v>92.5</v>
       </c>
       <c r="B372" t="n">
-        <v>3.379489398674469</v>
+        <v>0.03112117544250529</v>
       </c>
     </row>
     <row r="373">
@@ -3413,7 +3413,7 @@
         <v>92.75</v>
       </c>
       <c r="B373" t="n">
-        <v>3.360784004247002</v>
+        <v>0.03126515206246179</v>
       </c>
     </row>
     <row r="374">
@@ -3421,7 +3421,7 @@
         <v>93</v>
       </c>
       <c r="B374" t="n">
-        <v>3.338769719583131</v>
+        <v>0.03140843040982901</v>
       </c>
     </row>
     <row r="375">
@@ -3429,7 +3429,7 @@
         <v>93.25</v>
       </c>
       <c r="B375" t="n">
-        <v>3.313411928336916</v>
+        <v>0.03155100215774325</v>
       </c>
     </row>
     <row r="376">
@@ -3437,7 +3437,7 @@
         <v>93.5</v>
       </c>
       <c r="B376" t="n">
-        <v>3.284678082625459</v>
+        <v>0.03169285958578558</v>
       </c>
     </row>
     <row r="377">
@@ -3445,7 +3445,7 @@
         <v>93.75</v>
       </c>
       <c r="B377" t="n">
-        <v>3.252537828238866</v>
+        <v>0.03183399539543663</v>
       </c>
     </row>
     <row r="378">
@@ -3453,7 +3453,7 @@
         <v>94</v>
       </c>
       <c r="B378" t="n">
-        <v>3.216963131975861</v>
+        <v>0.03197440288880395</v>
       </c>
     </row>
     <row r="379">
@@ -3461,7 +3461,7 @@
         <v>94.25</v>
       </c>
       <c r="B379" t="n">
-        <v>3.177928414308395</v>
+        <v>0.03211407581154405</v>
       </c>
     </row>
     <row r="380">
@@ -3469,7 +3469,7 @@
         <v>94.5</v>
       </c>
       <c r="B380" t="n">
-        <v>3.135410662190662</v>
+        <v>0.03225300843527199</v>
       </c>
     </row>
     <row r="381">
@@ -3477,7 +3477,7 @@
         <v>94.75</v>
       </c>
       <c r="B381" t="n">
-        <v>3.089389561197369</v>
+        <v>0.03239119550959046</v>
       </c>
     </row>
     <row r="382">
@@ -3485,7 +3485,7 @@
         <v>95</v>
       </c>
       <c r="B382" t="n">
-        <v>3.039847618992124</v>
+        <v>0.0325286322780072</v>
       </c>
     </row>
     <row r="383">
@@ -3493,7 +3493,7 @@
         <v>95.25</v>
       </c>
       <c r="B383" t="n">
-        <v>2.986770283677346</v>
+        <v>0.03266531443296411</v>
       </c>
     </row>
     <row r="384">
@@ -3501,7 +3501,7 @@
         <v>95.5</v>
       </c>
       <c r="B384" t="n">
-        <v>2.930146061499037</v>
+        <v>0.03280123811804739</v>
       </c>
     </row>
     <row r="385">
@@ -3509,7 +3509,7 @@
         <v>95.75</v>
       </c>
       <c r="B385" t="n">
-        <v>2.869966630109997</v>
+        <v>0.03293639999730052</v>
       </c>
     </row>
     <row r="386">
@@ -3517,7 +3517,7 @@
         <v>96</v>
       </c>
       <c r="B386" t="n">
-        <v>2.806226944666431</v>
+        <v>0.03307079711061495</v>
       </c>
     </row>
     <row r="387">
@@ -3525,7 +3525,7 @@
         <v>96.25</v>
       </c>
       <c r="B387" t="n">
-        <v>2.738925350864838</v>
+        <v>0.033204426902638</v>
       </c>
     </row>
     <row r="388">
@@ -3533,7 +3533,7 @@
         <v>96.5</v>
       </c>
       <c r="B388" t="n">
-        <v>2.668063674016815</v>
+        <v>0.0333372873528673</v>
       </c>
     </row>
     <row r="389">
@@ -3541,7 +3541,7 @@
         <v>96.75</v>
       </c>
       <c r="B389" t="n">
-        <v>2.593647315333545</v>
+        <v>0.03346937679708108</v>
       </c>
     </row>
     <row r="390">
@@ -3549,7 +3549,7 @@
         <v>97</v>
       </c>
       <c r="B390" t="n">
-        <v>2.515685337190286</v>
+        <v>0.03360069334561639</v>
       </c>
     </row>
     <row r="391">
@@ -3557,7 +3557,7 @@
         <v>97.25</v>
       </c>
       <c r="B391" t="n">
-        <v>2.434190543293866</v>
+        <v>0.03373121603948285</v>
       </c>
     </row>
     <row r="392">
@@ -3565,7 +3565,7 @@
         <v>97.5</v>
       </c>
       <c r="B392" t="n">
-        <v>2.349179546469895</v>
+        <v>0.03386086440405637</v>
       </c>
     </row>
     <row r="393">
@@ -3573,7 +3573,7 @@
         <v>97.75</v>
       </c>
       <c r="B393" t="n">
-        <v>2.260672836350064</v>
+        <v>0.03398955438794143</v>
       </c>
     </row>
     <row r="394">
@@ -3581,7 +3581,7 @@
         <v>98</v>
       </c>
       <c r="B394" t="n">
-        <v>2.168694832189503</v>
+        <v>0.03411729491958034</v>
       </c>
     </row>
     <row r="395">
@@ -3589,7 +3589,7 @@
         <v>98.25</v>
       </c>
       <c r="B395" t="n">
-        <v>2.073273930676589</v>
+        <v>0.03424403265783177</v>
       </c>
     </row>
     <row r="396">
@@ -3597,7 +3597,7 @@
         <v>98.5</v>
       </c>
       <c r="B396" t="n">
-        <v>1.974442543659136</v>
+        <v>0.03436981116325168</v>
       </c>
     </row>
     <row r="397">
@@ -3605,7 +3605,7 @@
         <v>98.75</v>
       </c>
       <c r="B397" t="n">
-        <v>1.872237125675932</v>
+        <v>0.03449448766084723</v>
       </c>
     </row>
     <row r="398">
@@ -3613,7 +3613,7 @@
         <v>99</v>
       </c>
       <c r="B398" t="n">
-        <v>1.766698193278665</v>
+        <v>0.03461798791502967</v>
       </c>
     </row>
     <row r="399">
@@ -3621,7 +3621,7 @@
         <v>99.25</v>
       </c>
       <c r="B399" t="n">
-        <v>1.657870334602793</v>
+        <v>0.03474026091933337</v>
       </c>
     </row>
     <row r="400">
@@ -3629,7 +3629,7 @@
         <v>99.5</v>
       </c>
       <c r="B400" t="n">
-        <v>1.545802213323059</v>
+        <v>0.03486126082633924</v>
       </c>
     </row>
     <row r="401">
@@ -3637,7 +3637,7 @@
         <v>99.75</v>
       </c>
       <c r="B401" t="n">
-        <v>1.430546555316219</v>
+        <v>0.03498094741233328</v>
       </c>
     </row>
     <row r="402">
@@ -3645,7 +3645,7 @@
         <v>100</v>
       </c>
       <c r="B402" t="n">
-        <v>1.31218258675726</v>
+        <v>0.03509928585044238</v>
       </c>
     </row>
     <row r="403">
@@ -3653,7 +3653,7 @@
         <v>100.25</v>
       </c>
       <c r="B403" t="n">
-        <v>1.191174649280317</v>
+        <v>0.03521624622453631</v>
       </c>
     </row>
     <row r="404">
@@ -3661,7 +3661,7 @@
         <v>100.5</v>
       </c>
       <c r="B404" t="n">
-        <v>1.066560124244275</v>
+        <v>0.03533180291057341</v>
       </c>
     </row>
     <row r="405">
@@ -3669,7 +3669,7 @@
         <v>100.75</v>
       </c>
       <c r="B405" t="n">
-        <v>0.9389585358904518</v>
+        <v>0.03544593391447901</v>
       </c>
     </row>
     <row r="406">
@@ -3677,7 +3677,7 @@
         <v>101</v>
       </c>
       <c r="B406" t="n">
-        <v>0.808512748412555</v>
+        <v>0.03555862023046948</v>
       </c>
     </row>
     <row r="407">
@@ -3685,7 +3685,7 @@
         <v>101.25</v>
       </c>
       <c r="B407" t="n">
-        <v>0.675319302114358</v>
+        <v>0.03566984526067414</v>
       </c>
     </row>
     <row r="408">
@@ -3693,7 +3693,7 @@
         <v>101.5</v>
       </c>
       <c r="B408" t="n">
-        <v>0.5394596928790836</v>
+        <v>0.03577959431805704</v>
       </c>
     </row>
     <row r="409">
@@ -3701,7 +3701,7 @@
         <v>101.75</v>
       </c>
       <c r="B409" t="n">
-        <v>0.4010136685847177</v>
+        <v>0.03588785422523546</v>
       </c>
     </row>
     <row r="410">
@@ -3709,7 +3709,7 @@
         <v>102</v>
       </c>
       <c r="B410" t="n">
-        <v>0.260062104918278</v>
+        <v>0.03599461305885578</v>
       </c>
     </row>
     <row r="411">
@@ -3717,7 +3717,7 @@
         <v>102.25</v>
       </c>
       <c r="B411" t="n">
-        <v>0.116689343406559</v>
+        <v>0.03609985964599301</v>
       </c>
     </row>
     <row r="412">
@@ -3725,7 +3725,7 @@
         <v>102.5</v>
       </c>
       <c r="B412" t="n">
-        <v>0</v>
+        <v>0.03620358378574369</v>
       </c>
     </row>
     <row r="413">
@@ -3733,7 +3733,7 @@
         <v>102.75</v>
       </c>
       <c r="B413" t="n">
-        <v>0</v>
+        <v>0.03630577589258051</v>
       </c>
     </row>
     <row r="414">
@@ -3741,7 +3741,7 @@
         <v>103</v>
       </c>
       <c r="B414" t="n">
-        <v>0</v>
+        <v>0.03640642694958078</v>
       </c>
     </row>
     <row r="415">
@@ -3749,7 +3749,7 @@
         <v>103.25</v>
       </c>
       <c r="B415" t="n">
-        <v>0</v>
+        <v>0.03650552861011046</v>
       </c>
     </row>
     <row r="416">
@@ -3757,7 +3757,7 @@
         <v>103.5</v>
       </c>
       <c r="B416" t="n">
-        <v>0</v>
+        <v>0.03660307296322264</v>
       </c>
     </row>
     <row r="417">
@@ -3765,7 +3765,7 @@
         <v>103.75</v>
       </c>
       <c r="B417" t="n">
-        <v>0</v>
+        <v>0.03669905278491111</v>
       </c>
     </row>
     <row r="418">
@@ -3773,7 +3773,7 @@
         <v>104</v>
       </c>
       <c r="B418" t="n">
-        <v>0</v>
+        <v>0.03679346134131455</v>
       </c>
     </row>
     <row r="419">
@@ -3781,7 +3781,7 @@
         <v>104.25</v>
       </c>
       <c r="B419" t="n">
-        <v>0</v>
+        <v>0.03688629254482557</v>
       </c>
     </row>
     <row r="420">
@@ -3789,7 +3789,7 @@
         <v>104.5</v>
       </c>
       <c r="B420" t="n">
-        <v>0</v>
+        <v>0.03697754090898344</v>
       </c>
     </row>
     <row r="421">
@@ -3797,7 +3797,7 @@
         <v>104.75</v>
       </c>
       <c r="B421" t="n">
-        <v>0</v>
+        <v>0.03706720158939385</v>
       </c>
     </row>
     <row r="422">
@@ -3805,7 +3805,7 @@
         <v>105</v>
       </c>
       <c r="B422" t="n">
-        <v>0</v>
+        <v>0.03715527037399798</v>
       </c>
     </row>
     <row r="423">
@@ -3813,7 +3813,7 @@
         <v>105.25</v>
       </c>
       <c r="B423" t="n">
-        <v>0</v>
+        <v>0.03724174376346574</v>
       </c>
     </row>
     <row r="424">
@@ -3821,7 +3821,7 @@
         <v>105.5</v>
       </c>
       <c r="B424" t="n">
-        <v>0</v>
+        <v>0.03732661885255981</v>
       </c>
     </row>
     <row r="425">
@@ -3829,7 +3829,7 @@
         <v>105.75</v>
       </c>
       <c r="B425" t="n">
-        <v>0</v>
+        <v>0.03740989350711822</v>
       </c>
     </row>
     <row r="426">
@@ -3837,7 +3837,7 @@
         <v>106</v>
       </c>
       <c r="B426" t="n">
-        <v>0</v>
+        <v>0.03749156619834941</v>
       </c>
     </row>
     <row r="427">
@@ -3845,7 +3845,7 @@
         <v>106.25</v>
       </c>
       <c r="B427" t="n">
-        <v>0</v>
+        <v>0.03757163610051545</v>
       </c>
     </row>
     <row r="428">
@@ -3853,7 +3853,7 @@
         <v>106.5</v>
       </c>
       <c r="B428" t="n">
-        <v>0</v>
+        <v>0.03765010312011784</v>
       </c>
     </row>
     <row r="429">
@@ -3861,7 +3861,7 @@
         <v>106.75</v>
       </c>
       <c r="B429" t="n">
-        <v>0</v>
+        <v>0.03772696767911174</v>
       </c>
     </row>
     <row r="430">
@@ -3869,7 +3869,7 @@
         <v>107</v>
       </c>
       <c r="B430" t="n">
-        <v>0</v>
+        <v>0.03780223110150641</v>
       </c>
     </row>
     <row r="431">
@@ -3877,7 +3877,7 @@
         <v>107.25</v>
       </c>
       <c r="B431" t="n">
-        <v>0</v>
+        <v>0.03787589506504758</v>
       </c>
     </row>
     <row r="432">
@@ -3885,7 +3885,7 @@
         <v>107.5</v>
       </c>
       <c r="B432" t="n">
-        <v>0</v>
+        <v>0.03794796216914895</v>
       </c>
     </row>
     <row r="433">
@@ -3893,7 +3893,7 @@
         <v>107.75</v>
       </c>
       <c r="B433" t="n">
-        <v>0</v>
+        <v>0.038018435435822</v>
       </c>
     </row>
     <row r="434">
@@ -3901,7 +3901,7 @@
         <v>108</v>
       </c>
       <c r="B434" t="n">
-        <v>0</v>
+        <v>0.03808731856181005</v>
       </c>
     </row>
     <row r="435">
@@ -3909,7 +3909,7 @@
         <v>108.25</v>
       </c>
       <c r="B435" t="n">
-        <v>0</v>
+        <v>0.03815461594255155</v>
       </c>
     </row>
     <row r="436">
@@ -3917,7 +3917,7 @@
         <v>108.5</v>
       </c>
       <c r="B436" t="n">
-        <v>0</v>
+        <v>0.03822033227747539</v>
       </c>
     </row>
     <row r="437">
@@ -3925,7 +3925,7 @@
         <v>108.75</v>
       </c>
       <c r="B437" t="n">
-        <v>0</v>
+        <v>0.03828447324454125</v>
       </c>
     </row>
     <row r="438">
@@ -3933,7 +3933,7 @@
         <v>109</v>
       </c>
       <c r="B438" t="n">
-        <v>0</v>
+        <v>0.03834704458272655</v>
       </c>
     </row>
     <row r="439">
@@ -3941,7 +3941,7 @@
         <v>109.25</v>
       </c>
       <c r="B439" t="n">
-        <v>0</v>
+        <v>0.03840805301021678</v>
       </c>
     </row>
     <row r="440">
@@ -3949,7 +3949,7 @@
         <v>109.5</v>
       </c>
       <c r="B440" t="n">
-        <v>0</v>
+        <v>0.0384675054488428</v>
       </c>
     </row>
     <row r="441">
@@ -3957,7 +3957,7 @@
         <v>109.75</v>
       </c>
       <c r="B441" t="n">
-        <v>0</v>
+        <v>0.03852540941529976</v>
       </c>
     </row>
     <row r="442">
@@ -3965,7 +3965,7 @@
         <v>110</v>
       </c>
       <c r="B442" t="n">
-        <v>0</v>
+        <v>0.03858177304533082</v>
       </c>
     </row>
     <row r="443">
@@ -3973,7 +3973,7 @@
         <v>110.25</v>
       </c>
       <c r="B443" t="n">
-        <v>0</v>
+        <v>0.03863660456275168</v>
       </c>
     </row>
     <row r="444">
@@ -3981,7 +3981,7 @@
         <v>110.5</v>
       </c>
       <c r="B444" t="n">
-        <v>0</v>
+        <v>0.03868991318688166</v>
       </c>
     </row>
     <row r="445">
@@ -3989,7 +3989,7 @@
         <v>110.75</v>
       </c>
       <c r="B445" t="n">
-        <v>0</v>
+        <v>0.03874170792947068</v>
       </c>
     </row>
     <row r="446">
@@ -3997,7 +3997,7 @@
         <v>111</v>
       </c>
       <c r="B446" t="n">
-        <v>0</v>
+        <v>0.03879200023478992</v>
       </c>
     </row>
     <row r="447">
@@ -4005,7 +4005,7 @@
         <v>111.25</v>
       </c>
       <c r="B447" t="n">
-        <v>0</v>
+        <v>0.03884075004841091</v>
       </c>
     </row>
     <row r="448">
@@ -4013,7 +4013,7 @@
         <v>111.5</v>
       </c>
       <c r="B448" t="n">
-        <v>0</v>
+        <v>0.03888817036689754</v>
       </c>
     </row>
     <row r="449">
@@ -4021,7 +4021,7 @@
         <v>111.75</v>
       </c>
       <c r="B449" t="n">
-        <v>0</v>
+        <v>0.0389344741609268</v>
       </c>
     </row>
     <row r="450">
@@ -4029,7 +4029,7 @@
         <v>112</v>
       </c>
       <c r="B450" t="n">
-        <v>0</v>
+        <v>0.03897970854734774</v>
       </c>
     </row>
     <row r="451">
@@ -4037,7 +4037,7 @@
         <v>112.25</v>
       </c>
       <c r="B451" t="n">
-        <v>0</v>
+        <v>0.03902402349644247</v>
       </c>
     </row>
     <row r="452">
@@ -4045,7 +4045,7 @@
         <v>112.5</v>
       </c>
       <c r="B452" t="n">
-        <v>0</v>
+        <v>0.03906758200144767</v>
       </c>
     </row>
     <row r="453">
@@ -4053,7 +4053,7 @@
         <v>112.75</v>
       </c>
       <c r="B453" t="n">
-        <v>0</v>
+        <v>0.03911053613939722</v>
       </c>
     </row>
     <row r="454">
@@ -4061,7 +4061,7 @@
         <v>113</v>
       </c>
       <c r="B454" t="n">
-        <v>0</v>
+        <v>0.03915303076351338</v>
       </c>
     </row>
     <row r="455">
@@ -4069,7 +4069,7 @@
         <v>113.25</v>
       </c>
       <c r="B455" t="n">
-        <v>0</v>
+        <v>0.03919519945711854</v>
       </c>
     </row>
     <row r="456">
@@ -4077,7 +4077,7 @@
         <v>113.5</v>
       </c>
       <c r="B456" t="n">
-        <v>0</v>
+        <v>0.03923716278173234</v>
       </c>
     </row>
     <row r="457">
@@ -4085,7 +4085,7 @@
         <v>113.75</v>
       </c>
       <c r="B457" t="n">
-        <v>0</v>
+        <v>0.03927902824426259</v>
       </c>
     </row>
     <row r="458">
@@ -4093,7 +4093,7 @@
         <v>114</v>
       </c>
       <c r="B458" t="n">
-        <v>0</v>
+        <v>0.03932089113716087</v>
       </c>
     </row>
     <row r="459">
@@ -4101,7 +4101,7 @@
         <v>114.25</v>
       </c>
       <c r="B459" t="n">
-        <v>0</v>
+        <v>0.03936283591385351</v>
       </c>
     </row>
     <row r="460">
@@ -4109,7 +4109,7 @@
         <v>114.5</v>
       </c>
       <c r="B460" t="n">
-        <v>0</v>
+        <v>0.03940493781734161</v>
       </c>
     </row>
     <row r="461">
@@ -4117,7 +4117,7 @@
         <v>114.75</v>
       </c>
       <c r="B461" t="n">
-        <v>0</v>
+        <v>0.03944726455063854</v>
       </c>
     </row>
     <row r="462">
@@ -4125,7 +4125,7 @@
         <v>115</v>
       </c>
       <c r="B462" t="n">
-        <v>0</v>
+        <v>0.0394898778454809</v>
       </c>
     </row>
     <row r="463">
@@ -4133,7 +4133,7 @@
         <v>115.25</v>
       </c>
       <c r="B463" t="n">
-        <v>0</v>
+        <v>0.03953283480019578</v>
       </c>
     </row>
     <row r="464">
@@ -4141,7 +4141,7 @@
         <v>115.5</v>
       </c>
       <c r="B464" t="n">
-        <v>0</v>
+        <v>0.03957618840247452</v>
       </c>
     </row>
     <row r="465">
@@ -4149,7 +4149,7 @@
         <v>115.75</v>
       </c>
       <c r="B465" t="n">
-        <v>0</v>
+        <v>0.03961999105610577</v>
       </c>
     </row>
     <row r="466">
@@ -4157,7 +4157,7 @@
         <v>116</v>
       </c>
       <c r="B466" t="n">
-        <v>0</v>
+        <v>0.03966429155802141</v>
       </c>
     </row>
     <row r="467">
@@ -4165,7 +4165,7 @@
         <v>116.25</v>
       </c>
       <c r="B467" t="n">
-        <v>0</v>
+        <v>0.03970913792809608</v>
       </c>
     </row>
     <row r="468">
@@ -4173,7 +4173,7 @@
         <v>116.5</v>
       </c>
       <c r="B468" t="n">
-        <v>0</v>
+        <v>0.039754577777831</v>
       </c>
     </row>
     <row r="469">
@@ -4181,7 +4181,7 @@
         <v>116.75</v>
       </c>
       <c r="B469" t="n">
-        <v>0</v>
+        <v>0.03980065643081235</v>
       </c>
     </row>
     <row r="470">
@@ -4189,7 +4189,7 @@
         <v>117</v>
       </c>
       <c r="B470" t="n">
-        <v>0</v>
+        <v>0.03984742072392278</v>
       </c>
     </row>
     <row r="471">
@@ -4197,7 +4197,7 @@
         <v>117.25</v>
       </c>
       <c r="B471" t="n">
-        <v>0</v>
+        <v>0.03989491445743813</v>
       </c>
     </row>
     <row r="472">
@@ -4205,7 +4205,7 @@
         <v>117.5</v>
       </c>
       <c r="B472" t="n">
-        <v>0</v>
+        <v>0.03994318292050476</v>
       </c>
     </row>
     <row r="473">
@@ -4213,7 +4213,7 @@
         <v>117.75</v>
       </c>
       <c r="B473" t="n">
-        <v>0</v>
+        <v>0.03999226931970782</v>
       </c>
     </row>
     <row r="474">
@@ -4221,7 +4221,7 @@
         <v>118</v>
       </c>
       <c r="B474" t="n">
-        <v>0</v>
+        <v>0.04004221657856432</v>
       </c>
     </row>
     <row r="475">
@@ -4229,7 +4229,7 @@
         <v>118.25</v>
       </c>
       <c r="B475" t="n">
-        <v>0</v>
+        <v>0.04009306730994021</v>
       </c>
     </row>
     <row r="476">
@@ -4237,7 +4237,7 @@
         <v>118.5</v>
       </c>
       <c r="B476" t="n">
-        <v>0</v>
+        <v>0.04014486191373145</v>
       </c>
     </row>
     <row r="477">
@@ -4245,7 +4245,7 @@
         <v>118.75</v>
       </c>
       <c r="B477" t="n">
-        <v>0</v>
+        <v>0.04019764173773321</v>
       </c>
     </row>
     <row r="478">
@@ -4253,7 +4253,7 @@
         <v>119</v>
       </c>
       <c r="B478" t="n">
-        <v>0</v>
+        <v>0.04025144503863329</v>
       </c>
     </row>
     <row r="479">
@@ -4261,7 +4261,7 @@
         <v>119.25</v>
       </c>
       <c r="B479" t="n">
-        <v>0</v>
+        <v>0.04030631083543346</v>
       </c>
     </row>
     <row r="480">
@@ -4269,7 +4269,7 @@
         <v>119.5</v>
       </c>
       <c r="B480" t="n">
-        <v>0</v>
+        <v>0.04036227585809327</v>
       </c>
     </row>
     <row r="481">
@@ -4277,7 +4277,7 @@
         <v>119.75</v>
       </c>
       <c r="B481" t="n">
-        <v>0</v>
+        <v>0.04041937609472335</v>
       </c>
     </row>
     <row r="482">
@@ -4285,7 +4285,7 @@
         <v>120</v>
       </c>
       <c r="B482" t="n">
-        <v>0</v>
+        <v>0.04047764676886881</v>
       </c>
     </row>
     <row r="483">
@@ -4293,7 +4293,7 @@
         <v>120.25</v>
       </c>
       <c r="B483" t="n">
-        <v>0</v>
+        <v>0.04053712086537141</v>
       </c>
     </row>
     <row r="484">
@@ -4301,7 +4301,7 @@
         <v>120.5</v>
       </c>
       <c r="B484" t="n">
-        <v>0</v>
+        <v>0.04059783166724605</v>
       </c>
     </row>
     <row r="485">
@@ -4309,7 +4309,7 @@
         <v>120.75</v>
       </c>
       <c r="B485" t="n">
-        <v>0</v>
+        <v>0.0406598096334658</v>
       </c>
     </row>
     <row r="486">
@@ -4317,7 +4317,7 @@
         <v>121</v>
       </c>
       <c r="B486" t="n">
-        <v>0</v>
+        <v>0.04072308542050366</v>
       </c>
     </row>
     <row r="487">
@@ -4325,7 +4325,7 @@
         <v>121.25</v>
       </c>
       <c r="B487" t="n">
-        <v>0</v>
+        <v>0.04078768757263922</v>
       </c>
     </row>
     <row r="488">
@@ -4333,7 +4333,7 @@
         <v>121.5</v>
       </c>
       <c r="B488" t="n">
-        <v>0</v>
+        <v>0.04085364373751468</v>
       </c>
     </row>
     <row r="489">
@@ -4341,7 +4341,7 @@
         <v>121.75</v>
       </c>
       <c r="B489" t="n">
-        <v>0</v>
+        <v>0.04092098064856768</v>
       </c>
     </row>
     <row r="490">
@@ -4349,7 +4349,7 @@
         <v>122</v>
       </c>
       <c r="B490" t="n">
-        <v>0</v>
+        <v>0.04098972309976872</v>
       </c>
     </row>
     <row r="491">
@@ -4357,7 +4357,7 @@
         <v>122.25</v>
       </c>
       <c r="B491" t="n">
-        <v>0</v>
+        <v>0.04105989576462148</v>
       </c>
     </row>
     <row r="492">
@@ -4365,7 +4365,7 @@
         <v>122.5</v>
       </c>
       <c r="B492" t="n">
-        <v>0</v>
+        <v>0.04113152101976485</v>
       </c>
     </row>
     <row r="493">
@@ -4373,7 +4373,7 @@
         <v>122.75</v>
       </c>
       <c r="B493" t="n">
-        <v>0.004063411347330514</v>
+        <v>0.04120462106145176</v>
       </c>
     </row>
     <row r="494">
@@ -4381,7 +4381,7 @@
         <v>123</v>
       </c>
       <c r="B494" t="n">
-        <v>0.2511502212692682</v>
+        <v>0.04127921632809069</v>
       </c>
     </row>
     <row r="495">
@@ -4389,7 +4389,7 @@
         <v>123.25</v>
       </c>
       <c r="B495" t="n">
-        <v>0.5364553739394552</v>
+        <v>0.04135532634950199</v>
       </c>
     </row>
     <row r="496">
@@ -4397,7 +4397,7 @@
         <v>123.5</v>
       </c>
       <c r="B496" t="n">
-        <v>0.8265493377105726</v>
+        <v>0.04143296971907895</v>
       </c>
     </row>
     <row r="497">
@@ -4405,1607 +4405,7 @@
         <v>123.75</v>
       </c>
       <c r="B497" t="n">
-        <v>1.121344872351106</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B498" t="n">
-        <v>1.420766496167827</v>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" s="1" t="n">
-        <v>124.25</v>
-      </c>
-      <c r="B499" t="n">
-        <v>1.72475005765269</v>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" s="1" t="n">
-        <v>124.5</v>
-      </c>
-      <c r="B500" t="n">
-        <v>2.033242068787184</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" s="1" t="n">
-        <v>124.75</v>
-      </c>
-      <c r="B501" t="n">
-        <v>2.346149774845145</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B502" t="n">
-        <v>2.662630878053753</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" s="1" t="n">
-        <v>125.25</v>
-      </c>
-      <c r="B503" t="n">
-        <v>2.981804665762189</v>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" s="1" t="n">
-        <v>125.5</v>
-      </c>
-      <c r="B504" t="n">
-        <v>3.303032088509663</v>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" s="1" t="n">
-        <v>125.75</v>
-      </c>
-      <c r="B505" t="n">
-        <v>3.625689680934689</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B506" t="n">
-        <v>3.949122549479334</v>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" s="1" t="n">
-        <v>126.25</v>
-      </c>
-      <c r="B507" t="n">
-        <v>4.272639749951792</v>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" s="1" t="n">
-        <v>126.5</v>
-      </c>
-      <c r="B508" t="n">
-        <v>4.595500438846137</v>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" s="1" t="n">
-        <v>126.75</v>
-      </c>
-      <c r="B509" t="n">
-        <v>4.916906925807382</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B510" t="n">
-        <v>5.235999731588348</v>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" s="1" t="n">
-        <v>127.25</v>
-      </c>
-      <c r="B511" t="n">
-        <v>5.551838248826756</v>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" s="1" t="n">
-        <v>127.5</v>
-      </c>
-      <c r="B512" t="n">
-        <v>5.863400804481362</v>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" s="1" t="n">
-        <v>127.75</v>
-      </c>
-      <c r="B513" t="n">
-        <v>6.169564512183708</v>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B514" t="n">
-        <v>6.469069723261485</v>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" s="1" t="n">
-        <v>128.25</v>
-      </c>
-      <c r="B515" t="n">
-        <v>6.760364094950964</v>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" s="1" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="B516" t="n">
-        <v>7.04120090487799</v>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" s="1" t="n">
-        <v>128.75</v>
-      </c>
-      <c r="B517" t="n">
-        <v>7.310150842665078</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B518" t="n">
-        <v>7.566272370128134</v>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" s="1" t="n">
-        <v>129.25</v>
-      </c>
-      <c r="B519" t="n">
-        <v>7.809894121699362</v>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" s="1" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="B520" t="n">
-        <v>8.040870294087174</v>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" s="1" t="n">
-        <v>129.75</v>
-      </c>
-      <c r="B521" t="n">
-        <v>8.258633918141578</v>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B522" t="n">
-        <v>8.462495900056117</v>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" s="1" t="n">
-        <v>130.25</v>
-      </c>
-      <c r="B523" t="n">
-        <v>8.651690593745631</v>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" s="1" t="n">
-        <v>130.5</v>
-      </c>
-      <c r="B524" t="n">
-        <v>8.825392198372478</v>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" s="1" t="n">
-        <v>130.75</v>
-      </c>
-      <c r="B525" t="n">
-        <v>8.982722706299983</v>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B526" t="n">
-        <v>9.122756760585849</v>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" s="1" t="n">
-        <v>131.25</v>
-      </c>
-      <c r="B527" t="n">
-        <v>9.244525501660659</v>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" s="1" t="n">
-        <v>131.5</v>
-      </c>
-      <c r="B528" t="n">
-        <v>9.34701998620849</v>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" s="1" t="n">
-        <v>131.75</v>
-      </c>
-      <c r="B529" t="n">
-        <v>9.429194509133414</v>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B530" t="n">
-        <v>9.489970752636449</v>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" s="1" t="n">
-        <v>132.25</v>
-      </c>
-      <c r="B531" t="n">
-        <v>9.528242645264349</v>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" s="1" t="n">
-        <v>132.5</v>
-      </c>
-      <c r="B532" t="n">
-        <v>9.542882096538749</v>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" s="1" t="n">
-        <v>132.75</v>
-      </c>
-      <c r="B533" t="n">
-        <v>9.532745782523399</v>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B534" t="n">
-        <v>9.496682747455054</v>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" s="1" t="n">
-        <v>133.25</v>
-      </c>
-      <c r="B535" t="n">
-        <v>9.433542741825512</v>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" s="1" t="n">
-        <v>133.5</v>
-      </c>
-      <c r="B536" t="n">
-        <v>9.342185732950847</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" s="1" t="n">
-        <v>133.75</v>
-      </c>
-      <c r="B537" t="n">
-        <v>9.22149225134927</v>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B538" t="n">
-        <v>9.070374578993118</v>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" s="1" t="n">
-        <v>134.25</v>
-      </c>
-      <c r="B539" t="n">
-        <v>8.887788669934849</v>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" s="1" t="n">
-        <v>134.5</v>
-      </c>
-      <c r="B540" t="n">
-        <v>8.672746689036893</v>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" s="1" t="n">
-        <v>134.75</v>
-      </c>
-      <c r="B541" t="n">
-        <v>8.424330046783211</v>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B542" t="n">
-        <v>8.141702573857925</v>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" s="1" t="n">
-        <v>135.25</v>
-      </c>
-      <c r="B543" t="n">
-        <v>7.824124283247309</v>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" s="1" t="n">
-        <v>135.5</v>
-      </c>
-      <c r="B544" t="n">
-        <v>7.470965303386056</v>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" s="1" t="n">
-        <v>135.75</v>
-      </c>
-      <c r="B545" t="n">
-        <v>7.081717809858615</v>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B546" t="n">
-        <v>6.656010550637789</v>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" s="1" t="n">
-        <v>136.25</v>
-      </c>
-      <c r="B547" t="n">
-        <v>6.193622121492829</v>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" s="1" t="n">
-        <v>136.5</v>
-      </c>
-      <c r="B548" t="n">
-        <v>5.694490075754066</v>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" s="1" t="n">
-        <v>136.75</v>
-      </c>
-      <c r="B549" t="n">
-        <v>5.158724367024203</v>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B550" t="n">
-        <v>4.586616028173085</v>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" s="1" t="n">
-        <v>137.25</v>
-      </c>
-      <c r="B551" t="n">
-        <v>3.978646023423721</v>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" s="1" t="n">
-        <v>137.5</v>
-      </c>
-      <c r="B552" t="n">
-        <v>3.335492100114566</v>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" s="1" t="n">
-        <v>137.75</v>
-      </c>
-      <c r="B553" t="n">
-        <v>2.658034162109688</v>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B554" t="n">
-        <v>1.947357711878709</v>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" s="1" t="n">
-        <v>138.25</v>
-      </c>
-      <c r="B555" t="n">
-        <v>1.204755218241941</v>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" s="1" t="n">
-        <v>138.5</v>
-      </c>
-      <c r="B556" t="n">
-        <v>0.431725205246235</v>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" s="1" t="n">
-        <v>138.75</v>
-      </c>
-      <c r="B557" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B558" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" s="1" t="n">
-        <v>139.25</v>
-      </c>
-      <c r="B559" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" s="1" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="B560" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" s="1" t="n">
-        <v>139.75</v>
-      </c>
-      <c r="B561" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B562" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" s="1" t="n">
-        <v>140.25</v>
-      </c>
-      <c r="B563" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" s="1" t="n">
-        <v>140.5</v>
-      </c>
-      <c r="B564" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" s="1" t="n">
-        <v>140.75</v>
-      </c>
-      <c r="B565" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B566" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" s="1" t="n">
-        <v>141.25</v>
-      </c>
-      <c r="B567" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" s="1" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="B568" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" s="1" t="n">
-        <v>141.75</v>
-      </c>
-      <c r="B569" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B570" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" s="1" t="n">
-        <v>142.25</v>
-      </c>
-      <c r="B571" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" s="1" t="n">
-        <v>142.5</v>
-      </c>
-      <c r="B572" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" s="1" t="n">
-        <v>142.75</v>
-      </c>
-      <c r="B573" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B574" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" s="1" t="n">
-        <v>143.25</v>
-      </c>
-      <c r="B575" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" s="1" t="n">
-        <v>143.5</v>
-      </c>
-      <c r="B576" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" s="1" t="n">
-        <v>143.75</v>
-      </c>
-      <c r="B577" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B578" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" s="1" t="n">
-        <v>144.25</v>
-      </c>
-      <c r="B579" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" s="1" t="n">
-        <v>144.5</v>
-      </c>
-      <c r="B580" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" s="1" t="n">
-        <v>144.75</v>
-      </c>
-      <c r="B581" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B582" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" s="1" t="n">
-        <v>145.25</v>
-      </c>
-      <c r="B583" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" s="1" t="n">
-        <v>145.5</v>
-      </c>
-      <c r="B584" t="n">
-        <v>0.2257885033469876</v>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" s="1" t="n">
-        <v>145.75</v>
-      </c>
-      <c r="B585" t="n">
-        <v>2.524095842957793</v>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B586" t="n">
-        <v>5.076618697948491</v>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" s="1" t="n">
-        <v>146.25</v>
-      </c>
-      <c r="B587" t="n">
-        <v>7.887971127307412</v>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" s="1" t="n">
-        <v>146.5</v>
-      </c>
-      <c r="B588" t="n">
-        <v>10.96166780723042</v>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" s="1" t="n">
-        <v>146.75</v>
-      </c>
-      <c r="B589" t="n">
-        <v>14.30011629639335</v>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B590" t="n">
-        <v>17.90795101189674</v>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" s="1" t="n">
-        <v>147.25</v>
-      </c>
-      <c r="B591" t="n">
-        <v>21.80596447443248</v>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" s="1" t="n">
-        <v>147.5</v>
-      </c>
-      <c r="B592" t="n">
-        <v>26.01810721594195</v>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" s="1" t="n">
-        <v>147.75</v>
-      </c>
-      <c r="B593" t="n">
-        <v>30.57347631008274</v>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B594" t="n">
-        <v>35.50903248430274</v>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" s="1" t="n">
-        <v>148.25</v>
-      </c>
-      <c r="B595" t="n">
-        <v>40.87110147544586</v>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" s="1" t="n">
-        <v>148.5</v>
-      </c>
-      <c r="B596" t="n">
-        <v>46.71671359661126</v>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" s="1" t="n">
-        <v>148.75</v>
-      </c>
-      <c r="B597" t="n">
-        <v>53.11481960073196</v>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B598" t="n">
-        <v>60.14734138986372</v>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" s="1" t="n">
-        <v>149.25</v>
-      </c>
-      <c r="B599" t="n">
-        <v>67.91001027226876</v>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" s="1" t="n">
-        <v>149.5</v>
-      </c>
-      <c r="B600" t="n">
-        <v>76.51293085365216</v>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" s="1" t="n">
-        <v>149.75</v>
-      </c>
-      <c r="B601" t="n">
-        <v>86.08080764542832</v>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B602" t="n">
-        <v>96.75277002478714</v>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" s="1" t="n">
-        <v>150.25</v>
-      </c>
-      <c r="B603" t="n">
-        <v>108.6817321642206</v>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" s="1" t="n">
-        <v>150.5</v>
-      </c>
-      <c r="B604" t="n">
-        <v>122.0332270781493</v>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" s="1" t="n">
-        <v>150.75</v>
-      </c>
-      <c r="B605" t="n">
-        <v>136.9836580892692</v>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B606" t="n">
-        <v>153.7179090179915</v>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" s="1" t="n">
-        <v>151.25</v>
-      </c>
-      <c r="B607" t="n">
-        <v>172.4263047021962</v>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" s="1" t="n">
-        <v>151.5</v>
-      </c>
-      <c r="B608" t="n">
-        <v>193.3008521237594</v>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" s="1" t="n">
-        <v>151.75</v>
-      </c>
-      <c r="B609" t="n">
-        <v>216.5307661668166</v>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B610" t="n">
-        <v>242.2973469502247</v>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" s="1" t="n">
-        <v>152.25</v>
-      </c>
-      <c r="B611" t="n">
-        <v>270.7682761665453</v>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" s="1" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="B612" t="n">
-        <v>302.0914627081256</v>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" s="1" t="n">
-        <v>152.75</v>
-      </c>
-      <c r="B613" t="n">
-        <v>336.3887342431713</v>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B614" t="n">
-        <v>373.7497561000897</v>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" s="1" t="n">
-        <v>153.25</v>
-      </c>
-      <c r="B615" t="n">
-        <v>414.2265175998711</v>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" s="1" t="n">
-        <v>153.5</v>
-      </c>
-      <c r="B616" t="n">
-        <v>457.8289577333071</v>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" s="1" t="n">
-        <v>153.75</v>
-      </c>
-      <c r="B617" t="n">
-        <v>504.5221689905182</v>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B618" t="n">
-        <v>554.2255725394321</v>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" s="1" t="n">
-        <v>154.25</v>
-      </c>
-      <c r="B619" t="n">
-        <v>606.8142758060252</v>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" s="1" t="n">
-        <v>154.5</v>
-      </c>
-      <c r="B620" t="n">
-        <v>662.1226015475615</v>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" s="1" t="n">
-        <v>154.75</v>
-      </c>
-      <c r="B621" t="n">
-        <v>719.9495380392711</v>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B622" t="n">
-        <v>780.0656537755718</v>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" s="1" t="n">
-        <v>155.25</v>
-      </c>
-      <c r="B623" t="n">
-        <v>842.2208872007641</v>
-      </c>
-    </row>
-    <row r="624">
-      <c r="A624" s="1" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="B624" t="n">
-        <v>906.1525817157786</v>
-      </c>
-    </row>
-    <row r="625">
-      <c r="A625" s="1" t="n">
-        <v>155.75</v>
-      </c>
-      <c r="B625" t="n">
-        <v>971.59318313561</v>
-      </c>
-    </row>
-    <row r="626">
-      <c r="A626" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B626" t="n">
-        <v>1038.277128111228</v>
-      </c>
-    </row>
-    <row r="627">
-      <c r="A627" s="1" t="n">
-        <v>156.25</v>
-      </c>
-      <c r="B627" t="n">
-        <v>1105.946603055944</v>
-      </c>
-    </row>
-    <row r="628">
-      <c r="A628" s="1" t="n">
-        <v>156.5</v>
-      </c>
-      <c r="B628" t="n">
-        <v>1174.356024535251</v>
-      </c>
-    </row>
-    <row r="629">
-      <c r="A629" s="1" t="n">
-        <v>156.75</v>
-      </c>
-      <c r="B629" t="n">
-        <v>1243.275257065094</v>
-      </c>
-    </row>
-    <row r="630">
-      <c r="A630" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B630" t="n">
-        <v>1312.491694117344</v>
-      </c>
-    </row>
-    <row r="631">
-      <c r="A631" s="1" t="n">
-        <v>157.25</v>
-      </c>
-      <c r="B631" t="n">
-        <v>1381.811345446698</v>
-      </c>
-    </row>
-    <row r="632">
-      <c r="A632" s="1" t="n">
-        <v>157.5</v>
-      </c>
-      <c r="B632" t="n">
-        <v>1451.059047747823</v>
-      </c>
-    </row>
-    <row r="633">
-      <c r="A633" s="1" t="n">
-        <v>157.75</v>
-      </c>
-      <c r="B633" t="n">
-        <v>1520.077958268442</v>
-      </c>
-    </row>
-    <row r="634">
-      <c r="A634" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B634" t="n">
-        <v>1588.728562057093</v>
-      </c>
-    </row>
-    <row r="635">
-      <c r="A635" s="1" t="n">
-        <v>158.25</v>
-      </c>
-      <c r="B635" t="n">
-        <v>1656.887295137588</v>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" s="1" t="n">
-        <v>158.5</v>
-      </c>
-      <c r="B636" t="n">
-        <v>1724.444840299512</v>
-      </c>
-    </row>
-    <row r="637">
-      <c r="A637" s="1" t="n">
-        <v>158.75</v>
-      </c>
-      <c r="B637" t="n">
-        <v>1791.305389785751</v>
-      </c>
-    </row>
-    <row r="638">
-      <c r="A638" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B638" t="n">
-        <v>1857.389925107381</v>
-      </c>
-    </row>
-    <row r="639">
-      <c r="A639" s="1" t="n">
-        <v>159.25</v>
-      </c>
-      <c r="B639" t="n">
-        <v>1922.64158577904</v>
-      </c>
-    </row>
-    <row r="640">
-      <c r="A640" s="1" t="n">
-        <v>159.5</v>
-      </c>
-      <c r="B640" t="n">
-        <v>1987.013961571712</v>
-      </c>
-    </row>
-    <row r="641">
-      <c r="A641" s="1" t="n">
-        <v>159.75</v>
-      </c>
-      <c r="B641" t="n">
-        <v>2050.419007316038</v>
-      </c>
-    </row>
-    <row r="642">
-      <c r="A642" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B642" t="n">
-        <v>2112.677034427112</v>
-      </c>
-    </row>
-    <row r="643">
-      <c r="A643" s="1" t="n">
-        <v>160.25</v>
-      </c>
-      <c r="B643" t="n">
-        <v>2174.220487664401</v>
-      </c>
-    </row>
-    <row r="644">
-      <c r="A644" s="1" t="n">
-        <v>160.5</v>
-      </c>
-      <c r="B644" t="n">
-        <v>2234.336094146562</v>
-      </c>
-    </row>
-    <row r="645">
-      <c r="A645" s="1" t="n">
-        <v>160.75</v>
-      </c>
-      <c r="B645" t="n">
-        <v>2293.430357301212</v>
-      </c>
-    </row>
-    <row r="646">
-      <c r="A646" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B646" t="n">
-        <v>2351.454175565669</v>
-      </c>
-    </row>
-    <row r="647">
-      <c r="A647" s="1" t="n">
-        <v>161.25</v>
-      </c>
-      <c r="B647" t="n">
-        <v>2408.339805391122</v>
-      </c>
-    </row>
-    <row r="648">
-      <c r="A648" s="1" t="n">
-        <v>161.5</v>
-      </c>
-      <c r="B648" t="n">
-        <v>2464.07409434536</v>
-      </c>
-    </row>
-    <row r="649">
-      <c r="A649" s="1" t="n">
-        <v>161.75</v>
-      </c>
-      <c r="B649" t="n">
-        <v>2518.647442234701</v>
-      </c>
-    </row>
-    <row r="650">
-      <c r="A650" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B650" t="n">
-        <v>2572.053374038916</v>
-      </c>
-    </row>
-    <row r="651">
-      <c r="A651" s="1" t="n">
-        <v>162.25</v>
-      </c>
-      <c r="B651" t="n">
-        <v>2624.288309311361</v>
-      </c>
-    </row>
-    <row r="652">
-      <c r="A652" s="1" t="n">
-        <v>162.5</v>
-      </c>
-      <c r="B652" t="n">
-        <v>2675.351387593863</v>
-      </c>
-    </row>
-    <row r="653">
-      <c r="A653" s="1" t="n">
-        <v>162.75</v>
-      </c>
-      <c r="B653" t="n">
-        <v>2725.244157878411</v>
-      </c>
-    </row>
-    <row r="654">
-      <c r="A654" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B654" t="n">
-        <v>2773.970318909683</v>
-      </c>
-    </row>
-    <row r="655">
-      <c r="A655" s="1" t="n">
-        <v>163.25</v>
-      </c>
-      <c r="B655" t="n">
-        <v>2821.535551071624</v>
-      </c>
-    </row>
-    <row r="656">
-      <c r="A656" s="1" t="n">
-        <v>163.5</v>
-      </c>
-      <c r="B656" t="n">
-        <v>2867.947347191436</v>
-      </c>
-    </row>
-    <row r="657">
-      <c r="A657" s="1" t="n">
-        <v>163.75</v>
-      </c>
-      <c r="B657" t="n">
-        <v>2913.21485484293</v>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B658" t="n">
-        <v>2957.348735054103</v>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" s="1" t="n">
-        <v>164.25</v>
-      </c>
-      <c r="B659" t="n">
-        <v>3000.361031471924</v>
-      </c>
-    </row>
-    <row r="660">
-      <c r="A660" s="1" t="n">
-        <v>164.5</v>
-      </c>
-      <c r="B660" t="n">
-        <v>3042.265048185776</v>
-      </c>
-    </row>
-    <row r="661">
-      <c r="A661" s="1" t="n">
-        <v>164.75</v>
-      </c>
-      <c r="B661" t="n">
-        <v>3083.075235284291</v>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B662" t="n">
-        <v>3122.807081024564</v>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" s="1" t="n">
-        <v>165.25</v>
-      </c>
-      <c r="B663" t="n">
-        <v>3161.477009776503</v>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" s="1" t="n">
-        <v>165.5</v>
-      </c>
-      <c r="B664" t="n">
-        <v>3199.102285135209</v>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" s="1" t="n">
-        <v>165.75</v>
-      </c>
-      <c r="B665" t="n">
-        <v>3235.700917742847</v>
-      </c>
-    </row>
-    <row r="666">
-      <c r="A666" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B666" t="n">
-        <v>3271.291577484023</v>
-      </c>
-    </row>
-    <row r="667">
-      <c r="A667" s="1" t="n">
-        <v>166.25</v>
-      </c>
-      <c r="B667" t="n">
-        <v>3305.8935098155</v>
-      </c>
-    </row>
-    <row r="668">
-      <c r="A668" s="1" t="n">
-        <v>166.5</v>
-      </c>
-      <c r="B668" t="n">
-        <v>3339.526456064867</v>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" s="1" t="n">
-        <v>166.75</v>
-      </c>
-      <c r="B669" t="n">
-        <v>3372.210577586308</v>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B670" t="n">
-        <v>3403.966383698902</v>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" s="1" t="n">
-        <v>167.25</v>
-      </c>
-      <c r="B671" t="n">
-        <v>3434.814663357336</v>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" s="1" t="n">
-        <v>167.5</v>
-      </c>
-      <c r="B672" t="n">
-        <v>3464.776420518592</v>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" s="1" t="n">
-        <v>167.75</v>
-      </c>
-      <c r="B673" t="n">
-        <v>3493.872813173626</v>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B674" t="n">
-        <v>3522.125096012509</v>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" s="1" t="n">
-        <v>168.25</v>
-      </c>
-      <c r="B675" t="n">
-        <v>3549.554566686319</v>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" s="1" t="n">
-        <v>168.5</v>
-      </c>
-      <c r="B676" t="n">
-        <v>3576.182515620796</v>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" s="1" t="n">
-        <v>168.75</v>
-      </c>
-      <c r="B677" t="n">
-        <v>3602.030179326795</v>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B678" t="n">
-        <v>3627.118697141424</v>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" s="1" t="n">
-        <v>169.25</v>
-      </c>
-      <c r="B679" t="n">
-        <v>3651.469071322549</v>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" s="1" t="n">
-        <v>169.5</v>
-      </c>
-      <c r="B680" t="n">
-        <v>3675.102130408482</v>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" s="1" t="n">
-        <v>169.75</v>
-      </c>
-      <c r="B681" t="n">
-        <v>3698.038495744438</v>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B682" t="n">
-        <v>3720.298551068409</v>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" s="1" t="n">
-        <v>170.25</v>
-      </c>
-      <c r="B683" t="n">
-        <v>3741.902415041087</v>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" s="1" t="n">
-        <v>170.5</v>
-      </c>
-      <c r="B684" t="n">
-        <v>3762.86991659817</v>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" s="1" t="n">
-        <v>170.75</v>
-      </c>
-      <c r="B685" t="n">
-        <v>3783.220572997983</v>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B686" t="n">
-        <v>3802.973570433865</v>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" s="1" t="n">
-        <v>171.25</v>
-      </c>
-      <c r="B687" t="n">
-        <v>3822.14774707795</v>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" s="1" t="n">
-        <v>171.5</v>
-      </c>
-      <c r="B688" t="n">
-        <v>3840.761578421947</v>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" s="1" t="n">
-        <v>171.75</v>
-      </c>
-      <c r="B689" t="n">
-        <v>3858.833164780197</v>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B690" t="n">
-        <v>3876.380220821177</v>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" s="1" t="n">
-        <v>172.25</v>
-      </c>
-      <c r="B691" t="n">
-        <v>3893.420066995363</v>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" s="1" t="n">
-        <v>172.5</v>
-      </c>
-      <c r="B692" t="n">
-        <v>3909.9696227297</v>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" s="1" t="n">
-        <v>172.75</v>
-      </c>
-      <c r="B693" t="n">
-        <v>3926.045401262374</v>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B694" t="n">
-        <v>3941.663505994985</v>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" s="1" t="n">
-        <v>173.25</v>
-      </c>
-      <c r="B695" t="n">
-        <v>3956.839628243503</v>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" s="1" t="n">
-        <v>173.5</v>
-      </c>
-      <c r="B696" t="n">
-        <v>3971.589046274</v>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" s="1" t="n">
-        <v>173.75</v>
-      </c>
-      <c r="B697" t="n">
-        <v>3985.926625513729</v>
+        <v>0.04151216347572365</v>
       </c>
     </row>
   </sheetData>
